--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26717"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA118A14-DAEC-46BB-BB17-86C740383B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26C2837-85DC-4C24-9376-451512C1B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="シナリオ1" sheetId="2" r:id="rId2"/>
+    <sheet name="ログイン" sheetId="2" r:id="rId2"/>
     <sheet name="シナリオ2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -38,80 +38,147 @@
     <t>シナリオID</t>
   </si>
   <si>
+    <t>分類</t>
+  </si>
+  <si>
     <t>シナリオ</t>
   </si>
   <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>正しいメールアドレスとパスワードを使用してログインが成功する</t>
+  </si>
+  <si>
+    <t>わかりやすい結果</t>
+  </si>
+  <si>
+    <t>正しいメールアドレスと誤ったパスワードを使用してログインが失敗する</t>
+  </si>
+  <si>
+    <t>正しい手順</t>
+  </si>
+  <si>
+    <t>誤ったメールアドレスとパスワードを使用してログインが失敗する</t>
+  </si>
+  <si>
+    <t>ログイン成功時、TOPページにリダイレクトされる</t>
+  </si>
+  <si>
+    <t>ログイン時にDB接続できない場合、エラーが表示される</t>
+  </si>
+  <si>
+    <t>ログイン時に一時的にDB接続できなかったが、接続が復帰したため、ログインが成功する</t>
+  </si>
+  <si>
     <t>アカウントの権限の編集を行った結果を確認する</t>
   </si>
   <si>
-    <t>アカウントの削除を取り消したいが、取り消しができない</t>
+    <t>アカウント登録</t>
+  </si>
+  <si>
+    <t>管理者権限でログインし、アカウント登録フォームに必要な情報を入力してアカウントを登録する</t>
+  </si>
+  <si>
+    <t>アカウントの削除を取り消す</t>
+  </si>
+  <si>
+    <t>管理者権限でログインし、アカウント登録フォームに不適切な文字を入力するとエラーが表示される</t>
   </si>
   <si>
     <t>アカウントの名前（名）がわからないので、名前（姓）で絞り込む</t>
   </si>
   <si>
+    <t>管理者権限でログインし、アカウント登録フォームに不適切な文字を入力するとエラーが表示されたあと、適切な文字を入力するとアカウント登録ができる</t>
+  </si>
+  <si>
     <t>ログインのパスワードを忘れたのでログイン試行を繰り返す</t>
   </si>
   <si>
+    <t>管理者権限でログインし、アカウント登録フォームに必要な情報を入力してアカウントを登録する際にDB接続できない場合エラーが表示される</t>
+  </si>
+  <si>
     <t>一般権限からアカウントの編集を試みる</t>
   </si>
   <si>
+    <t>管理者権限でログインし、アカウント登録フォームに必要な情報を入力してアカウントを登録する際に、一時的にDB接続できなかったが、接続が復帰したため、登録ができる</t>
+  </si>
+  <si>
     <t>ログインしていない状態からアカウント一覧の閲覧を試みる</t>
   </si>
   <si>
     <t>アカウント登録していないメールアドレスでログインを試みる</t>
   </si>
   <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>ゴール</t>
-  </si>
-  <si>
-    <t>編集を行った該当レコードがDBに反映され、編集後の内容が一覧に表示される</t>
-  </si>
-  <si>
     <t>ユーザー情報</t>
   </si>
   <si>
-    <t>ユーザーの目的</t>
-  </si>
-  <si>
-    <t>アカウントの権限を編集して、編集した結果を確認する</t>
-  </si>
-  <si>
-    <t>ユーザーの辿るステップ</t>
-  </si>
-  <si>
-    <t>ユーザーの心理</t>
-  </si>
-  <si>
-    <t>確認したい項目</t>
-  </si>
-  <si>
-    <t>TOPページ</t>
-  </si>
-  <si>
-    <t>一覧</t>
-  </si>
-  <si>
-    <t>検索</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>更新確認</t>
-  </si>
-  <si>
-    <t>更新完了</t>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>前提ID</t>
+  </si>
+  <si>
+    <t>大項目</t>
+    <rPh sb="0" eb="3">
+      <t>ダイコウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中項目</t>
+  </si>
+  <si>
+    <t>小項目</t>
+    <rPh sb="0" eb="3">
+      <t>ショウコウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手順</t>
+  </si>
+  <si>
+    <t>期待される結果</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>実施日</t>
+  </si>
+  <si>
+    <t>実施者</t>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改善案</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +186,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,12 +229,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,15 +248,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - アクセント 1" xfId="1" builtinId="30"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,93 +704,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="52.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -559,99 +854,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="58.5" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:15">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:15" s="20" customFormat="1" ht="22.5">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="18.75">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:F4" xr:uid="{048E2B7D-F169-44DF-809E-805412D2B0F5}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26717"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26719"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26C2837-85DC-4C24-9376-451512C1B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29AB67BB-BBDB-442D-BB67-5AB801BCA9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -47,67 +47,166 @@
     <t>ログイン</t>
   </si>
   <si>
-    <t>正しいメールアドレスとパスワードを使用してログインが成功する</t>
+    <t>正しいメールアドレスとパスワードを使用してログインする</t>
   </si>
   <si>
     <t>わかりやすい結果</t>
   </si>
   <si>
-    <t>正しいメールアドレスと誤ったパスワードを使用してログインが失敗する</t>
+    <t>正しいメールアドレスと誤ったパスワードを使用してログインを試みる</t>
   </si>
   <si>
     <t>正しい手順</t>
   </si>
   <si>
-    <t>誤ったメールアドレスとパスワードを使用してログインが失敗する</t>
-  </si>
-  <si>
-    <t>ログイン成功時、TOPページにリダイレクトされる</t>
-  </si>
-  <si>
-    <t>ログイン時にDB接続できない場合、エラーが表示される</t>
-  </si>
-  <si>
-    <t>ログイン時に一時的にDB接続できなかったが、接続が復帰したため、ログインが成功する</t>
+    <t>何度も正しいメールアドレスと誤ったパスワードを使用してログインを試みる</t>
+  </si>
+  <si>
+    <t>誤ったメールアドレスとパスワードを使用してログインを試みる</t>
+  </si>
+  <si>
+    <t>何度も誤ったメールアドレスとパスワードを使用してログインを試みる</t>
+  </si>
+  <si>
+    <t>ログイン時にDB接続失敗する</t>
   </si>
   <si>
     <t>アカウントの権限の編集を行った結果を確認する</t>
   </si>
   <si>
+    <t>ログイン時に一時的にDB接続できなかったが、接続が復帰する</t>
+  </si>
+  <si>
+    <t>アカウントの削除を取り消す</t>
+  </si>
+  <si>
+    <t>削除されたアカウントでログインを試みる</t>
+  </si>
+  <si>
+    <t>アカウントの名前（名）がわからないので、名前（姓）で絞り込む</t>
+  </si>
+  <si>
+    <t>権限制御</t>
+  </si>
+  <si>
+    <t>ログインしていない状態で、アカウント登録を試みる</t>
+  </si>
+  <si>
+    <t>ログインのパスワードを忘れたのでログイン試行を繰り返す</t>
+  </si>
+  <si>
+    <t>ログインしていない状態で、アカウント一覧の表示を試みる</t>
+  </si>
+  <si>
+    <t>一般権限からアカウントの編集を試みる</t>
+  </si>
+  <si>
+    <t>ログインしていない状態で、アカウント更新を試みる</t>
+  </si>
+  <si>
+    <t>ログインしていない状態からアカウント一覧の閲覧を試みる</t>
+  </si>
+  <si>
+    <t>ログインしていない状態で、アカウント削除を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録していないメールアドレスでログインを試みる</t>
+  </si>
+  <si>
+    <t>一般権限アカウントで、アカウント登録を試みる</t>
+  </si>
+  <si>
+    <t>一般権限アカウントで、アカウント一覧の表示を試みる</t>
+  </si>
+  <si>
+    <t>一般権限アカウントで、アカウント更新を試みる</t>
+  </si>
+  <si>
+    <t>一般権限アカウントで、アカウント削除を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント一覧を表示する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント削除する</t>
+  </si>
+  <si>
     <t>アカウント登録</t>
   </si>
   <si>
-    <t>管理者権限でログインし、アカウント登録フォームに必要な情報を入力してアカウントを登録する</t>
-  </si>
-  <si>
-    <t>アカウントの削除を取り消す</t>
-  </si>
-  <si>
-    <t>管理者権限でログインし、アカウント登録フォームに不適切な文字を入力するとエラーが表示される</t>
-  </si>
-  <si>
-    <t>アカウントの名前（名）がわからないので、名前（姓）で絞り込む</t>
-  </si>
-  <si>
-    <t>管理者権限でログインし、アカウント登録フォームに不適切な文字を入力するとエラーが表示されたあと、適切な文字を入力するとアカウント登録ができる</t>
-  </si>
-  <si>
-    <t>ログインのパスワードを忘れたのでログイン試行を繰り返す</t>
-  </si>
-  <si>
-    <t>管理者権限でログインし、アカウント登録フォームに必要な情報を入力してアカウントを登録する際にDB接続できない場合エラーが表示される</t>
-  </si>
-  <si>
-    <t>一般権限からアカウントの編集を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限でログインし、アカウント登録フォームに必要な情報を入力してアカウントを登録する際に、一時的にDB接続できなかったが、接続が復帰したため、登録ができる</t>
-  </si>
-  <si>
-    <t>ログインしていない状態からアカウント一覧の閲覧を試みる</t>
-  </si>
-  <si>
-    <t>アカウント登録していないメールアドレスでログインを試みる</t>
+    <t>管理者権限アカウントで、アカウント登録フォームに必要な情報を入力してアカウントを登録する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォームに空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォームに不適切な文字の入力を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォームに不適切な文字を入力後、適切な文字を入力し、アカウント登録する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォームに必要な情報を入力してアカウントを登録する際にDB接続に失敗する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォームに必要な情報を入力してアカウントを登録する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント登録する</t>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント一覧の全件表示をする</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウントを検索する</t>
+  </si>
+  <si>
+    <t>表示されたアカウントから更新へ遷移する</t>
+  </si>
+  <si>
+    <t>表示されたアカウントから削除へ遷移する</t>
+  </si>
+  <si>
+    <t>表示されたアカウントのうち、削除されたアカウントの更新を試みる</t>
+  </si>
+  <si>
+    <t>表示されたアカウントのうち、削除されたアカウントの削除を試みる</t>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームに必要な情報を入力してアカウントを更新する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームに空欄があるまま更新を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームにパスワード空欄のまま更新する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームに変更しないまま更新する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームに不適切な文字の入力を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームに不適切な文字を入力後、適切な文字を入力し、アカウント更新する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームに必要な情報を入力してアカウントを更新する際にDB接続に失敗する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント更新フォームに必要な情報を入力してアカウントを更新する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント更新する</t>
+  </si>
+  <si>
+    <t>ログイン中に現在のアカウント削除を試みる</t>
   </si>
   <si>
     <t>ユーザー情報</t>
@@ -372,22 +471,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -751,6 +850,9 @@
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -762,6 +864,9 @@
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -770,6 +875,9 @@
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -778,6 +886,9 @@
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -786,6 +897,9 @@
       <c r="A9">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -798,27 +912,36 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -827,6 +950,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -835,6 +964,12 @@
       </c>
     </row>
     <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -843,8 +978,261 @@
       </c>
     </row>
     <row r="15" spans="1:7">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -856,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -871,83 +1259,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" s="20" customFormat="1" ht="22.5">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" s="18" customFormat="1" ht="22.5">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.75">

--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26719"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29AB67BB-BBDB-442D-BB67-5AB801BCA9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC38C107-CBCB-475D-986E-CD431765EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -164,9 +164,21 @@
     <t>管理者権限アカウントで、アカウント一覧の全件表示をする</t>
   </si>
   <si>
+    <t>管理者権限アカウントで、アカウント一覧の全件表示をするが、DB接続に失敗する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント一覧の全件表示をする際に、一時的にDB接続できなかったが、接続が復帰する</t>
+  </si>
+  <si>
     <t>管理者権限アカウントで、アカウントを検索する</t>
   </si>
   <si>
+    <t>管理者権限アカウントで、アカウントを検索するが、DB接続に失敗する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウントを検索する際に、一時的にDB接続できなかったが、接続が復帰する</t>
+  </si>
+  <si>
     <t>表示されたアカウントから更新へ遷移する</t>
   </si>
   <si>
@@ -206,7 +218,28 @@
     <t>管理者権限アカウントで、アカウント更新フォームに必要な情報を入力してアカウントを更新する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント更新する</t>
   </si>
   <si>
-    <t>ログイン中に現在のアカウント削除を試みる</t>
+    <t>管理者権限アカウントで、ログイン中のアカウントの権限を一般に変更を試みる</t>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント削除を取りやめる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント削除するボタンをクリック後、取り消したいので前に戻る</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、ログイン中のアカウント削除を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント削除後、復元を試みる</t>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+  </si>
+  <si>
+    <t>ログイン時にインジェクション攻撃を試みる</t>
   </si>
   <si>
     <t>ユーザー情報</t>
@@ -803,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1124,6 +1157,9 @@
       </c>
     </row>
     <row r="28" spans="1:3">
+      <c r="A28">
+        <v>25</v>
+      </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -1132,6 +1168,9 @@
       </c>
     </row>
     <row r="29" spans="1:3">
+      <c r="A29">
+        <v>26</v>
+      </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -1140,6 +1179,9 @@
       </c>
     </row>
     <row r="30" spans="1:3">
+      <c r="A30">
+        <v>27</v>
+      </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -1148,6 +1190,9 @@
       </c>
     </row>
     <row r="31" spans="1:3">
+      <c r="A31">
+        <v>28</v>
+      </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1156,6 +1201,9 @@
       </c>
     </row>
     <row r="32" spans="1:3">
+      <c r="A32">
+        <v>29</v>
+      </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -1163,7 +1211,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>30</v>
+      </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -1171,7 +1222,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>31</v>
+      </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -1179,7 +1233,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>32</v>
+      </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
@@ -1187,52 +1244,213 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>33</v>
+      </c>
       <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="C37" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="C38" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="C39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
       <c r="C40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
       <c r="C41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
       <c r="C43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1486,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1293,49 +1511,49 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" ht="22.5">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.75">

--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC38C107-CBCB-475D-986E-CD431765EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D5E14F-4534-4FCB-A7D3-D8CC0C2B3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -242,9 +242,24 @@
     <t>ログイン時にインジェクション攻撃を試みる</t>
   </si>
   <si>
+    <t>セッション保持</t>
+  </si>
+  <si>
+    <t>ログイン後、ブラウザを閉じて再度アクセスする</t>
+  </si>
+  <si>
+    <t>ログイン後、別のアカウントでログインする</t>
+  </si>
+  <si>
     <t>ユーザー情報</t>
   </si>
   <si>
+    <t>正しいメールアドレスとパスワード空欄でログインを試みる</t>
+  </si>
+  <si>
+    <t>メールアドレス空欄とパスワード空欄でログインを試みる</t>
+  </si>
+  <si>
     <t>ver</t>
   </si>
   <si>
@@ -252,23 +267,6 @@
   </si>
   <si>
     <t>前提ID</t>
-  </si>
-  <si>
-    <t>大項目</t>
-    <rPh sb="0" eb="3">
-      <t>ダイコウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中項目</t>
-  </si>
-  <si>
-    <t>小項目</t>
-    <rPh sb="0" eb="3">
-      <t>ショウコウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>手順</t>
@@ -296,10 +294,104 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>改善案</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>ログイン成功し、TOPページに遷移する
+管理者メニューが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc
+4.【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>入力したメールアドレスは保持されている
+ログイン失敗し、ログインボタン下部にテキスト「パスワードが一致しませんでした」が表示される</t>
+  </si>
+  <si>
+    <t>1.パスワード空欄のまま【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>ブラウザごとのフォーム必須入力メッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.メールアドレスを削除して【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc
+2.【ログイン】ボタンをクリック
+3.手順1～2を5回繰り返す</t>
+  </si>
+  <si>
+    <t>ロックされるべき？</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：matigai@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>入力したメールアドレスは保持されている
+ログイン失敗し、ログインボタン下部にテキスト「メールアドレスが見つかりませんでした」が表示される</t>
+  </si>
+  <si>
+    <t>1.以下ログイン情報を入力する
+・メールアドレス：matigai@mail.com
+・パスワード：abc123
+2.【ログイン】ボタンをクリック
+3.手順1～2を5回繰り返す</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.XAMMPのMySQLのSTOPボタンをクリック
+5.【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>入力したメールアドレスは保持されている
+ログイン失敗し、ログインボタン下部にテキスト「エラーが発生したためログイン情報を取得できません。」が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.XAMMPのMySQLのSTOPボタンをクリック
+5.【ログイン】ボタンをクリック
+6.XAMMPのMySQLのSTARTボタンをクリック</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：sakujo@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック</t>
   </si>
 </sst>
 </file>
@@ -325,13 +417,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Yu Gothic"/>
-      <charset val="128"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -340,16 +425,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -450,28 +539,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -491,35 +599,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -836,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A54"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1453,6 +1570,22 @@
         <v>69</v>
       </c>
     </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1460,134 +1593,813 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="58.5" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="58.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="3" customWidth="1"/>
+    <col min="8" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="13" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:15" s="18" customFormat="1" ht="22.5">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="33">
+      <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="D15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="G15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="H15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="I15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="J15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="K15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="L15" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" ht="18.75">
-      <c r="A5" s="8">
+      <c r="M15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="100.5">
+      <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+      <c r="C16" s="15">
+        <f>ROW()-13</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="100.5">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <f>ROW()-13</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="33">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" ref="C18:C25" si="0">ROW()-13</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="16">
+        <f>$C$17</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="33">
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" s="15">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="16">
+        <f>$C$18</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="99">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D20" s="16">
+        <f>$C$17</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="100.5">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="29">
+        <v>6</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="84">
+      <c r="A22" s="15">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15">
+        <v>7</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D22" s="16">
+        <f>$C$21</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="118.5">
+      <c r="A23" s="15">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="135">
+      <c r="A24" s="15">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="100.5">
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15">
+        <v>10</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="24"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="24"/>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:F4" xr:uid="{048E2B7D-F169-44DF-809E-805412D2B0F5}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:E15" xr:uid="{048E2B7D-F169-44DF-809E-805412D2B0F5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D5E14F-4534-4FCB-A7D3-D8CC0C2B3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD686072-7299-498C-923D-07C0B3294D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ログイン" sheetId="2" r:id="rId2"/>
-    <sheet name="シナリオ2" sheetId="3" r:id="rId3"/>
+    <sheet name="権限制御" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -59,33 +59,39 @@
     <t>正しい手順</t>
   </si>
   <si>
+    <t>正しいメールアドレスとパスワード空欄でログインを試みる</t>
+  </si>
+  <si>
+    <t>メールアドレス空欄とパスワード空欄でログインを試みる</t>
+  </si>
+  <si>
     <t>何度も正しいメールアドレスと誤ったパスワードを使用してログインを試みる</t>
   </si>
   <si>
     <t>誤ったメールアドレスとパスワードを使用してログインを試みる</t>
   </si>
   <si>
+    <t>アカウントの権限の編集を行った結果を確認する</t>
+  </si>
+  <si>
     <t>何度も誤ったメールアドレスとパスワードを使用してログインを試みる</t>
   </si>
   <si>
+    <t>アカウントの削除を取り消す</t>
+  </si>
+  <si>
     <t>ログイン時にDB接続失敗する</t>
   </si>
   <si>
-    <t>アカウントの権限の編集を行った結果を確認する</t>
+    <t>アカウントの名前（名）がわからないので、名前（姓）で絞り込む</t>
   </si>
   <si>
     <t>ログイン時に一時的にDB接続できなかったが、接続が復帰する</t>
   </si>
   <si>
-    <t>アカウントの削除を取り消す</t>
-  </si>
-  <si>
     <t>削除されたアカウントでログインを試みる</t>
   </si>
   <si>
-    <t>アカウントの名前（名）がわからないので、名前（姓）で絞り込む</t>
-  </si>
-  <si>
     <t>権限制御</t>
   </si>
   <si>
@@ -252,12 +258,6 @@
   </si>
   <si>
     <t>ユーザー情報</t>
-  </si>
-  <si>
-    <t>正しいメールアドレスとパスワード空欄でログインを試みる</t>
-  </si>
-  <si>
-    <t>メールアドレス空欄とパスワード空欄でログインを試みる</t>
   </si>
   <si>
     <t>ver</t>
@@ -310,6 +310,9 @@
   <si>
     <t>ログイン成功し、TOPページに遷移する
 管理者メニューが表示される</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>1.TOPページにアクセスする
@@ -392,6 +395,97 @@
 ・メールアドレス：sakujo@mail.com
 ・パスワード：abc123
 4.【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.ブラウザのアドレスバーを使い直接「regist.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>fail.phpへ遷移し、テキスト「権限がありません」が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.ブラウザのアドレスバーを使い直接「list.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.ブラウザのアドレスバーを使い直接「update.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.ブラウザのアドレスバーを使い直接「delete.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：ippan@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「regist.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：ippan@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「list.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：ippan@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「update.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：ippan@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「delete.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「regist.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「list.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「update.php」にアクセスする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザのアドレスバーを使い直接「delete.php」にアクセスする</t>
   </si>
 </sst>
 </file>
@@ -539,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,92 +645,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1090,13 +1194,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1104,13 +1205,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1118,13 +1216,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1132,13 +1230,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1146,183 +1244,189 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -1333,7 +1437,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -1344,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -1355,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -1366,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -1377,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -1388,7 +1492,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -1399,7 +1503,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -1410,10 +1514,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
         <v>53</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1421,10 +1525,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1432,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
@@ -1443,7 +1547,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -1454,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
         <v>58</v>
@@ -1465,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
@@ -1476,7 +1580,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
@@ -1487,7 +1591,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
@@ -1498,7 +1602,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
@@ -1509,10 +1613,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
         <v>63</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1520,7 +1624,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
@@ -1531,10 +1635,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1542,7 +1646,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
@@ -1553,7 +1657,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
@@ -1564,26 +1668,54 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
         <v>68</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="56" spans="1:3">
+      <c r="A56">
+        <v>53</v>
+      </c>
       <c r="B56" t="s">
         <v>70</v>
       </c>
       <c r="C56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
         <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1595,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A25"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1605,24 +1737,27 @@
     <col min="2" max="2" width="6.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="23" customWidth="1"/>
     <col min="6" max="6" width="58.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="26.625" style="3" customWidth="1"/>
-    <col min="8" max="12" width="9" style="3"/>
+    <col min="8" max="8" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="13" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="27"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1669,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1681,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1693,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1705,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1717,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1729,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1741,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1753,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1765,633 +1900,673 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="33">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="100.5">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>1</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="15">
-        <f>ROW()-13</f>
+      <c r="C16" s="13">
+        <f>ROW()-15</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="100.5">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" ref="C17:C25" si="0">ROW()-15</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="33">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13">
         <v>3</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
+        <f>$C$17</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="33">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <v>4</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="14">
+        <f>$C$18</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="99">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13">
         <v>5</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="100.5">
-      <c r="A17" s="15">
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="14">
+        <f>$C$17</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" s="23" customFormat="1" ht="100.5">
+      <c r="A21" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="15">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15">
-        <f>ROW()-13</f>
-        <v>4</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="33">
-      <c r="A18" s="15">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15">
-        <v>3</v>
-      </c>
-      <c r="C18" s="15">
-        <f t="shared" ref="C18:C25" si="0">ROW()-13</f>
-        <v>5</v>
-      </c>
-      <c r="D18" s="16">
-        <f>$C$17</f>
-        <v>4</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="33">
-      <c r="A19" s="15">
-        <v>1</v>
-      </c>
-      <c r="B19" s="15">
-        <v>4</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B21" s="27">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D19" s="16">
-        <f>$C$18</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="99">
-      <c r="A20" s="15">
+      <c r="D21" s="28"/>
+      <c r="E21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="84">
+      <c r="A22" s="13">
         <v>1</v>
       </c>
-      <c r="B20" s="15">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B22" s="13">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D20" s="16">
-        <f>$C$17</f>
-        <v>4</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="100.5">
-      <c r="A21" s="15">
+      <c r="D22" s="14">
+        <f>$C$21</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="118.5">
+      <c r="A23" s="13">
         <v>1</v>
       </c>
-      <c r="B21" s="29">
-        <v>6</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B23" s="13">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-    </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="84">
-      <c r="A22" s="15">
+      <c r="D23" s="14"/>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="135">
+      <c r="A24" s="13">
         <v>1</v>
       </c>
-      <c r="B22" s="15">
-        <v>7</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B24" s="13">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D22" s="16">
-        <f>$C$21</f>
-        <v>8</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="118.5">
-      <c r="A23" s="15">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="100.5">
+      <c r="A25" s="13">
         <v>1</v>
       </c>
-      <c r="B23" s="15">
-        <v>8</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B25" s="13">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="135">
-      <c r="A24" s="15">
-        <v>1</v>
-      </c>
-      <c r="B24" s="15">
-        <v>9</v>
-      </c>
-      <c r="C24" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="100.5">
-      <c r="A25" s="15">
-        <v>1</v>
-      </c>
-      <c r="B25" s="15">
-        <v>10</v>
-      </c>
-      <c r="C25" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="24"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="24"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" s="4" customFormat="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="24"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" s="4" customFormat="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="24"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="1:14" s="4" customFormat="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="24"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14" s="4" customFormat="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="24"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="24"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="24"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="24"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:14" s="4" customFormat="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="24"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2407,12 +2582,595 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1129B-599B-4584-A2DF-0E6AF0C2E230}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="6" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="34">
+        <v>11</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="34">
+        <v>12</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="34">
+        <v>13</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="34">
+        <v>14</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="34">
+        <v>15</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="34">
+        <v>16</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="34">
+        <v>17</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="34">
+        <v>18</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="34">
+        <v>19</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="34">
+        <v>20</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="34">
+        <v>21</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="34">
+        <v>22</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="50.25">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>11</v>
+      </c>
+      <c r="C17" s="13">
+        <f>ROW()-15</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13">
+        <v>13</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13">
+        <v>15</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13">
+        <v>16</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13">
+        <v>17</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13">
+        <v>18</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13">
+        <v>19</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13">
+        <v>20</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13">
+        <v>21</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="134.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
+        <v>22</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:E16" xr:uid="{AD76BBD0-7440-42BC-8D02-040BE4DF17D4}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD686072-7299-498C-923D-07C0B3294D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5A3CA9-EF42-4AED-96C1-B60553D06DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ログイン" sheetId="2" r:id="rId2"/>
     <sheet name="権限制御" sheetId="3" r:id="rId3"/>
+    <sheet name="アカウント登録" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="134">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -150,6 +151,36 @@
   </si>
   <si>
     <t>管理者権限アカウントで、アカウント登録フォームに空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「名前（姓）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「名前（名）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「カナ（姓）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「カナ（名）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「メールアドレス」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「パスワード」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「郵便番号」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「住所（都道府県）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「住所（市区町村）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォーム「住所（番地）」に空欄があるまま登録を試みる</t>
   </si>
   <si>
     <t>管理者権限アカウントで、アカウント登録フォームに不適切な文字の入力を試みる</t>
@@ -458,7 +489,24 @@
 ・メールアドレス：kanri@mail.com
 ・パスワード：abc123
 4.【ログイン】ボタンをクリック
-5.ブラウザのアドレスバーを使い直接「regist.php」にアクセスする</t>
+5.ブラウザのアドレスバーを使い直接「regist.php」にアクセスする
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test1@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする
+19.登録するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>「regist_complete.php」へ遷移し、テキスト「登録完了しました」が表示される</t>
   </si>
   <si>
     <t>1.TOPページにアクセスする
@@ -467,7 +515,28 @@
 ・メールアドレス：kanri@mail.com
 ・パスワード：abc123
 4.【ログイン】ボタンをクリック
-5.ブラウザのアドレスバーを使い直接「list.php」にアクセスする</t>
+5.ブラウザのアドレスバーを使い直接「list.php」にアクセスする
+6.【全件表示】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>登録されているアカウントが全件表示される</t>
+  </si>
+  <si>
+    <t>1.表示されているアカウントのうちいずれかの【更新する】ボタンをクリック
+2.「名前(姓)」の入力フォームの内容を削除し「更新」を入力する
+3.【確認する】ボタンをクリック
+4.【更新する】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>「update_complete.php」へ遷移し、テキスト「更新が完了しました」が表示される</t>
+  </si>
+  <si>
+    <t>1.表示されているアカウントのうちいずれかの【削除する】ボタンをクリック
+2.【確認する】ボタンをクリック
+3.【削除する】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>「delete_complete.php」へ遷移し、テキスト「削除完了しました」が表示される</t>
   </si>
   <si>
     <t>1.TOPページにアクセスする
@@ -476,7 +545,21 @@
 ・メールアドレス：kanri@mail.com
 ・パスワード：abc123
 4.【ログイン】ボタンをクリック
-5.ブラウザのアドレスバーを使い直接「update.php」にアクセスする</t>
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test2@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする
+19.登録するボタンをクリックする</t>
   </si>
   <si>
     <t>1.TOPページにアクセスする
@@ -485,7 +568,20 @@
 ・メールアドレス：kanri@mail.com
 ・パスワード：abc123
 4.【ログイン】ボタンをクリック
-5.ブラウザのアドレスバーを使い直接「delete.php」にアクセスする</t>
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームには入力しない
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
   </si>
 </sst>
 </file>
@@ -496,7 +592,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +629,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -633,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,15 +834,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B25"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1422,300 +1518,362 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="35" spans="1:3">
+      <c r="C35" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="36" spans="1:3">
+      <c r="C36" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="37" spans="1:3">
+      <c r="C37" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
         <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
         <v>55</v>
       </c>
-      <c r="B58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" t="s">
-        <v>74</v>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1727,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1757,7 +1915,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1910,46 +2068,46 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="33">
       <c r="A15" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="100.5">
@@ -1968,13 +2126,13 @@
         <v>5</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -2001,13 +2159,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -2037,13 +2195,13 @@
         <v>9</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2073,13 +2231,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2109,13 +2267,13 @@
         <v>11</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2124,7 +2282,7 @@
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N20" s="22"/>
     </row>
@@ -2144,13 +2302,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -2180,13 +2338,13 @@
         <v>14</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="31" t="s">
         <v>100</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -2213,13 +2371,13 @@
         <v>16</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2246,13 +2404,13 @@
         <v>18</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -2279,13 +2437,13 @@
         <v>19</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -2584,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1129B-599B-4584-A2DF-0E6AF0C2E230}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G28"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2604,223 +2762,222 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="34">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
         <v>11</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A4" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="34">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>12</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="34">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
         <v>13</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A6" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="34">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
         <v>14</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="34">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
         <v>15</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="34">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
         <v>16</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="34">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
         <v>17</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="34">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
         <v>18</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="34">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
         <v>19</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A12" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="34">
-        <v>20</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="34">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
         <v>21</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="34">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
         <v>22</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A15" s="5"/>
@@ -2833,46 +2990,46 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A16" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="50.25">
@@ -2883,21 +3040,20 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <f>ROW()-15</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -2913,21 +3069,27 @@
       <c r="B18" s="13">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>12</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="19">
+        <v>45138</v>
+      </c>
       <c r="L18" s="20"/>
       <c r="M18" s="21"/>
       <c r="N18" s="22"/>
@@ -2937,21 +3099,27 @@
       <c r="B19" s="13">
         <v>13</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>13</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="19">
+        <v>45138</v>
+      </c>
       <c r="L19" s="20"/>
       <c r="M19" s="21"/>
       <c r="N19" s="22"/>
@@ -2961,21 +3129,27 @@
       <c r="B20" s="13">
         <v>14</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>14</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="19">
+        <v>45138</v>
+      </c>
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
@@ -2985,21 +3159,27 @@
       <c r="B21" s="13">
         <v>15</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>15</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="19">
+        <v>45138</v>
+      </c>
       <c r="L21" s="20"/>
       <c r="M21" s="21"/>
       <c r="N21" s="22"/>
@@ -3009,21 +3189,27 @@
       <c r="B22" s="13">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>16</v>
+      </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
+      <c r="K22" s="19">
+        <v>45138</v>
+      </c>
       <c r="L22" s="20"/>
       <c r="M22" s="21"/>
       <c r="N22" s="22"/>
@@ -3033,21 +3219,27 @@
       <c r="B23" s="13">
         <v>17</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>17</v>
+      </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="19">
+        <v>45138</v>
+      </c>
       <c r="L23" s="20"/>
       <c r="M23" s="21"/>
       <c r="N23" s="22"/>
@@ -3057,109 +3249,151 @@
       <c r="B24" s="13">
         <v>18</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
+      <c r="K24" s="19">
+        <v>45138</v>
+      </c>
       <c r="L24" s="20"/>
       <c r="M24" s="21"/>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="134.25">
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="409.6">
       <c r="A25" s="13"/>
       <c r="B25" s="13">
         <v>19</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="31"/>
+        <v>124</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="19">
+        <v>45138</v>
+      </c>
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" ht="134.25">
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="151.5">
       <c r="A26" s="13"/>
       <c r="B26" s="13">
         <v>20</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>20</v>
+      </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="31"/>
+        <v>126</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="19">
+        <v>45138</v>
+      </c>
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" ht="134.25">
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="110.25" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="13">
         <v>21</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="13">
+        <v>21</v>
+      </c>
+      <c r="D27" s="14">
+        <v>20</v>
+      </c>
       <c r="E27" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="31"/>
+        <v>128</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="19">
+        <v>45138</v>
+      </c>
       <c r="L27" s="20"/>
       <c r="M27" s="21"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" ht="134.25">
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="67.5">
       <c r="A28" s="13"/>
       <c r="B28" s="13">
         <v>22</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="13">
+        <v>22</v>
+      </c>
+      <c r="D28" s="14">
+        <v>20</v>
+      </c>
       <c r="E28" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="31"/>
+        <v>130</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="19">
+        <v>45138</v>
+      </c>
       <c r="L28" s="20"/>
       <c r="M28" s="21"/>
       <c r="N28" s="22"/>
@@ -3173,4 +3407,566 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BA92F1-2646-44AA-BD77-57FDF874DBFD}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A13" s="1"/>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="408.75" customHeight="1">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>23</v>
+      </c>
+      <c r="C17" s="13">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13">
+        <v>24</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13">
+        <v>24</v>
+      </c>
+      <c r="C19" s="13">
+        <v>24</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13">
+        <v>24</v>
+      </c>
+      <c r="C20" s="13">
+        <v>24</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13">
+        <v>24</v>
+      </c>
+      <c r="C21" s="13">
+        <v>24</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13">
+        <v>24</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13">
+        <v>24</v>
+      </c>
+      <c r="C23" s="13">
+        <v>24</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19">
+        <v>45138</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="110.25" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:E16" xr:uid="{48C1811D-49B4-498A-806B-E704DAB5C645}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26803"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5A3CA9-EF42-4AED-96C1-B60553D06DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3BACE5E-BAEC-429F-906B-C2A8BB98204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="162">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -539,6 +539,12 @@
     <t>「delete_complete.php」へ遷移し、テキスト「削除完了しました」が表示される</t>
   </si>
   <si>
+    <t>管理者権限アカウントで、アカウント登録フォームに誤った情報を入力して、確認画面へ戻って訂正する</t>
+  </si>
+  <si>
+    <t>管理者権限アカウントで、アカウント登録フォームにすでに登録のあるメールアドレスを入力して登録を試みる</t>
+  </si>
+  <si>
     <t>1.TOPページにアクセスする
 2.上部メニュー「ログイン」をクリック
 3.以下ログイン情報を入力する
@@ -562,6 +568,56 @@
 19.登録するボタンをクリックする</t>
   </si>
   <si>
+    <t>入力したデータが、以下のカラムへ対応しDBへ登録される
+1.「family_name」＝「山田」
+2.「last_name」＝「花子」
+3.「family_name_kana」＝「ヤマダ」
+4.「last_name_kana」＝「花子」
+5.「mail」＝「test2@mail.com」
+6.「gender」＝「1」
+7.「postal_code」＝「0123456」
+8.「prefecture」＝「16」
+9.「address_1」＝「新宿区西新宿」
+10.「address_2」＝「1-1-1」
+11.「authority」＝「1」</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test2@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「000」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力したデータが、以下のカラムへ対応しDBへ登録される
+1.「family_name」＝「山田」
+2.「last_name」＝「花子」
+3.「family_name_kana」＝「ヤマダ」
+4.「last_name_kana」＝「花子」
+5.「mail」＝「test2@mail.com」
+6.「gender」＝「1」
+7.「postal_code」＝「000」
+8.「prefecture」＝「16」
+9.「address_1」＝「新宿区西新宿」
+10.「address_2」＝「1-1-1」
+11.「authority」＝「1」</t>
+  </si>
+  <si>
     <t>1.TOPページにアクセスする
 2.上部メニュー「ログイン」をクリック
 3.以下ログイン情報を入力する
@@ -582,6 +638,272 @@
 16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
 17.「アカウント権限」のリストから「管理者」を選択する
 18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「名前（姓）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームには入力しない
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「名前（名）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームには入力しない
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「カナ（姓）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームには入力しない
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「カナ（名）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームには入力しない
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームには入力しない
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「メールアドレスが未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームには入力しない
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする
+</t>
+  </si>
+  <si>
+    <t>入力欄の下に「パスワードが未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームには入力しない
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする
+19.登録するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「郵便番号が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストは選択しない
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする
+</t>
+  </si>
+  <si>
+    <t>リストの下に「都道府県が未選択です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームには入力しない
+16.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする
+</t>
+  </si>
+  <si>
+    <t>入力欄の下に「住所（市区町村）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「山田」を入力する
+7.「名前（名）」の入力フォームへ「花子」を入力する
+8.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+9.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+10.「メールアドレス」の入力フォームへ「test3@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0123456」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+16.「住所（番地）」の入力フォームには入力しない
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「住所（番地）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「0」を入力する
+7.「名前（名）」の入力フォームへ「0」を入力する
+8.「カナ（姓）」の入力フォームへ「0」を入力する
+9.「カナ（名）」の入力フォームへ「0」を入力する
+10.「メールアドレス」の入力フォームへ「0@0」を入力する
+11.「パスワード」の入力フォームへ「0」を入力する
+12.「性別」のリストから「女性」を選択する
+13.「郵便番号」の入力フォームへ「0」を入力する
+14.「住所（都道府県）」のリストから「北海道」を選択する
+15.「住所（市区町村）」の入力フォームへ「0」を入力する
+16.「住所（番地）」の入力フォームへ「0」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>名前(姓)、名前(名)、カナ(姓)、カナ(名)で文字種別エラーの表示
+郵便番号で桁数エラーの表示
+住所（市区町村）で文字種エラーの表示がされる</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>住所（市区町村）では想定されない入力でも通る
+一桁でもパスワードが設定できるためセキュリティ上問題がある</t>
   </si>
 </sst>
 </file>
@@ -828,15 +1150,15 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1533,17 +1855,17 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="32" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1907,8 +2229,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="25"/>
@@ -2058,8 +2380,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5"/>
       <c r="D14" s="24"/>
       <c r="E14" s="26"/>
@@ -2742,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1129B-599B-4584-A2DF-0E6AF0C2E230}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -2753,8 +3075,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="25"/>
@@ -3411,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BA92F1-2646-44AA-BD77-57FDF874DBFD}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3422,18 +3744,19 @@
     <col min="5" max="5" width="42.875" customWidth="1"/>
     <col min="6" max="6" width="52.875" customWidth="1"/>
     <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="25"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3443,12 +3766,12 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3458,14 +3781,8 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="F3">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="15">
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3473,16 +3790,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -3490,16 +3801,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -3507,16 +3812,12 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="15">
+        <v>41</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3524,14 +3825,12 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="15">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3539,433 +3838,759 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8">
-        <v>38</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="15">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
       <c r="B9">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="15">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
       <c r="B10">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F10"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="15">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
       <c r="B11">
         <v>31</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>41</v>
-      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="15">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
       <c r="B12">
         <v>32</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>42</v>
-      </c>
+      <c r="C12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
       <c r="B13">
         <v>33</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="F13">
-        <v>43</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="23"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5">
-      <c r="A16" s="6" t="s">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A18"/>
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="408.75" customHeight="1">
-      <c r="A17" s="13">
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="408.75" customHeight="1">
+      <c r="A25" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B25" s="13">
         <v>23</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C25" s="13">
         <v>23</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19">
+      <c r="F25" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="19">
         <v>45138</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="354">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13">
-        <v>24</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19">
-        <v>45138</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="354">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13">
-        <v>24</v>
-      </c>
-      <c r="C19" s="13">
-        <v>24</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19">
-        <v>45138</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="354">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13">
-        <v>24</v>
-      </c>
-      <c r="C20" s="13">
-        <v>24</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19">
-        <v>45138</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="354">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13">
-        <v>24</v>
-      </c>
-      <c r="C21" s="13">
-        <v>24</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19">
-        <v>45138</v>
-      </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="354">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13">
-        <v>24</v>
-      </c>
-      <c r="C22" s="13">
-        <v>24</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19">
-        <v>45138</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="354">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13">
-        <v>24</v>
-      </c>
-      <c r="C23" s="13">
-        <v>24</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19">
-        <v>45138</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" ht="15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="408.75" customHeight="1">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>24</v>
+      </c>
+      <c r="C26" s="13">
+        <v>24</v>
+      </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="E26" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="19">
+        <v>45147</v>
+      </c>
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" ht="110.25" customHeight="1">
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="354">
       <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="13">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13">
+        <v>25</v>
+      </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
+      <c r="E27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="19">
+        <v>45147</v>
+      </c>
       <c r="L27" s="20"/>
       <c r="M27" s="21"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" ht="15">
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="354">
       <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="13">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13">
+        <v>26</v>
+      </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
+      <c r="E28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="19">
+        <v>45147</v>
+      </c>
       <c r="L28" s="20"/>
       <c r="M28" s="21"/>
       <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13">
+        <v>27</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13">
+        <v>28</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13">
+        <v>29</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="369">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13">
+        <v>30</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="370.5">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13">
+        <v>31</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="369">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13">
+        <v>32</v>
+      </c>
+      <c r="C34" s="13">
+        <v>32</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="352.5">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13">
+        <v>33</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13">
+        <v>34</v>
+      </c>
+      <c r="C36" s="13">
+        <v>34</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="336.75">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13">
+        <v>35</v>
+      </c>
+      <c r="C37" s="13">
+        <v>35</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="19">
+        <v>45147</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" ht="336.75">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13">
+        <v>36</v>
+      </c>
+      <c r="C38" s="13">
+        <v>36</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" ht="336.75">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13">
+        <v>37</v>
+      </c>
+      <c r="C39" s="13">
+        <v>37</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" ht="336.75">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13">
+        <v>38</v>
+      </c>
+      <c r="C40" s="13">
+        <v>38</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:E16" xr:uid="{48C1811D-49B4-498A-806B-E704DAB5C645}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:E24" xr:uid="{48C1811D-49B4-498A-806B-E704DAB5C645}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26807"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3BACE5E-BAEC-429F-906B-C2A8BB98204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E511D835-AF5E-4085-96E6-48AEE492504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ログイン" sheetId="2" r:id="rId2"/>
     <sheet name="権限制御" sheetId="3" r:id="rId3"/>
     <sheet name="アカウント登録" sheetId="4" r:id="rId4"/>
+    <sheet name="アカウント一覧" sheetId="5" r:id="rId5"/>
+    <sheet name="アカウント更新" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="193">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -147,73 +149,82 @@
     <t>アカウント登録</t>
   </si>
   <si>
-    <t>管理者権限アカウントで、アカウント登録フォームに必要な情報を入力してアカウントを登録する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォームに空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「名前（姓）」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「名前（名）」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「カナ（姓）」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「カナ（名）」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「メールアドレス」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「パスワード」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「郵便番号」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「住所（都道府県）」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「住所（市区町村）」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォーム「住所（番地）」に空欄があるまま登録を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォームに不適切な文字の入力を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォームに不適切な文字を入力後、適切な文字を入力し、アカウント登録する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォームに必要な情報を入力してアカウントを登録する際にDB接続に失敗する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォームに必要な情報を入力してアカウントを登録する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント登録する</t>
+    <t>アカウント登録フォームに必要な情報を入力してアカウントを登録する</t>
+  </si>
+  <si>
+    <t>アカウント登録フォームに誤った情報を入力して、確認画面へ戻って訂正する</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「名前（姓）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「名前（名）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「カナ（姓）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「カナ（名）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「メールアドレス」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「パスワード」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「郵便番号」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「住所（都道府県）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「住所（市区町村）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム「住所（番地）」に空欄があるまま登録を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォームに不適切な文字の入力を試みる</t>
+  </si>
+  <si>
+    <t>アカウント登録フォームに必要な情報を入力してアカウントを登録する際にDB接続に失敗する</t>
+  </si>
+  <si>
+    <t>アカウント登録フォームに必要な情報を入力してアカウントを登録する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント登録する</t>
+  </si>
+  <si>
+    <t>アカウント登録フォームにすでに登録のあるメールアドレスを入力して登録を試みる</t>
   </si>
   <si>
     <t>アカウント一覧</t>
   </si>
   <si>
-    <t>管理者権限アカウントで、アカウント一覧の全件表示をする</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント一覧の全件表示をするが、DB接続に失敗する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント一覧の全件表示をする際に、一時的にDB接続できなかったが、接続が復帰する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウントを検索する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウントを検索するが、DB接続に失敗する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウントを検索する際に、一時的にDB接続できなかったが、接続が復帰する</t>
+    <t>アカウント一覧の全件表示をする</t>
+  </si>
+  <si>
+    <t>アカウント一覧の全件表示をするが、DB接続に失敗する</t>
+  </si>
+  <si>
+    <t>アカウント一覧の全件表示をする際に、一時的にDB接続できなかったが、接続が復帰する</t>
+  </si>
+  <si>
+    <t>条件指定せず、アカウントを検索する</t>
+  </si>
+  <si>
+    <t>「名前（姓）」でアカウントを検索する</t>
+  </si>
+  <si>
+    <t>「名前（姓）」かつ「性別：男」でアカウントを検索する</t>
+  </si>
+  <si>
+    <t>「名前（姓）」で、不適切な文字でアカウントを検索する</t>
+  </si>
+  <si>
+    <t>アカウントを検索するが、DB接続に失敗する</t>
+  </si>
+  <si>
+    <t>アカウントを検索する際に、一時的にDB接続できなかったが、接続が復帰する</t>
   </si>
   <si>
     <t>表示されたアカウントから更新へ遷移する</t>
@@ -222,10 +233,10 @@
     <t>表示されたアカウントから削除へ遷移する</t>
   </si>
   <si>
-    <t>表示されたアカウントのうち、削除されたアカウントの更新を試みる</t>
-  </si>
-  <si>
-    <t>表示されたアカウントのうち、削除されたアカウントの削除を試みる</t>
+    <t>削除済みアカウントの更新を試みる</t>
+  </si>
+  <si>
+    <t>削除済みアカウントの削除を試みる</t>
   </si>
   <si>
     <t>アカウント更新</t>
@@ -539,12 +550,6 @@
     <t>「delete_complete.php」へ遷移し、テキスト「削除完了しました」が表示される</t>
   </si>
   <si>
-    <t>管理者権限アカウントで、アカウント登録フォームに誤った情報を入力して、確認画面へ戻って訂正する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント登録フォームにすでに登録のあるメールアドレスを入力して登録を試みる</t>
-  </si>
-  <si>
     <t>1.TOPページにアクセスする
 2.上部メニュー「ログイン」をクリック
 3.以下ログイン情報を入力する
@@ -904,6 +909,275 @@
   <si>
     <t>住所（市区町村）では想定されない入力でも通る
 一桁でもパスワードが設定できるためセキュリティ上問題がある</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「田中」を入力する
+7.「名前（名）」の入力フォームへ「次郎」を入力する
+8.「カナ（姓）」の入力フォームへ「タナカ」を入力する
+9.「カナ（名）」の入力フォームへ「ジロウ」を入力する
+10.「メールアドレス」の入力フォームへ「db@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「男」を選択する
+13.「郵便番号」の入力フォームへ「1020001」を入力する
+14.「住所（都道府県）」のリストから「北海道」を選択する
+15.「住所（市区町村）」の入力フォームへ「札幌市」を入力する
+16.「住所（番地）」の入力フォームへ「999マンション５３２５」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>メールアドレス重複チェックがされ、テキスト「エラーが発生したため情報を取得できません」が表示される</t>
+  </si>
+  <si>
+    <t>pdo文のエラーが表示される</t>
+  </si>
+  <si>
+    <t>try文から外れていたので、入れ込む</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「田中」を入力する
+7.「名前（名）」の入力フォームへ「次郎」を入力する
+8.「カナ（姓）」の入力フォームへ「タナカ」を入力する
+9.「カナ（名）」の入力フォームへ「ジロウ」を入力する
+10.「メールアドレス」の入力フォームへ「db@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「男」を選択する
+13.「郵便番号」の入力フォームへ「1020001」を入力する
+14.「住所（都道府県）」のリストから「北海道」を選択する
+15.「住所（市区町村）」の入力フォームへ「札幌市」を入力する
+16.「住所（番地）」の入力フォームへ「999マンション５３２５」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.XAMPPのMySQLの「Stop」ボタンをクリックする
+19.確認するボタンをクリックする
+20.3秒以内に、XAMPPのMySQLの「Stop」ボタンをクリックする
+21.登録するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>テキスト「登録完了しました」が表示され、
+入力したデータが、以下のカラムへ対応しDBへ登録される
+1.「family_name」＝「田中」
+2.「last_name」＝「次郎」
+3.「family_name_kana」＝「タナカ」
+4.「last_name_kana」＝「ジロウ」
+5.「mail」＝「db@mail.com」
+6.「gender」＝「0」
+7.「postal_code」＝「1020001」
+8.「prefecture」＝「0」
+9.「address_1」＝「札幌市」
+10.「address_2」＝「999マンション５３２５」
+11.「authority」＝「1」</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「田中」を入力する
+7.「名前（名）」の入力フォームへ「三郎」を入力する
+8.「カナ（姓）」の入力フォームへ「タナカ」を入力する
+9.「カナ（名）」の入力フォームへ「サブロウ」を入力する
+10.「メールアドレス」の入力フォームへ「db@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「男」を選択する
+13.「郵便番号」の入力フォームへ「1020001」を入力する
+14.「住所（都道府県）」のリストから「北海道」を選択する
+15.「住所（市区町村）」の入力フォームへ「札幌市」を入力する
+16.「住所（番地）」の入力フォームへ「999マンション５３２５」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォーム下部へ、テキスト「既に存在するメールアドレスです」が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>一覧にDBに登録されているアカウント全件がリストで表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.XAMMPのMySQL「Stop」ボタンをクリック
+7.「全件表示」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>テキスト「データベースの接続に失敗しました」が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.XAMMPのMySQL「Stop」ボタンをクリック
+7.「全件表示」ボタンをクリックする
+8.３秒以内にXAMMPのMySQL「Start」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「検索」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.名前（姓）で「山田」を入力する
+7.「検索」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）が「山田」のアカウントがすべて表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.名前（姓）で「山田」を入力する
+7.性別で「男」を選択する
+8.「検索」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）が「山田」かつ、性別が「男」のアカウントがすべて表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.名前（姓）で「\n」を入力する
+7.「検索」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>テキスト「条件に一致するアカウントがありませんでした」が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.名前（姓）で「山田」を入力する
+7.XAMMPのMySQL「Stop」ボタンをクリック
+8.「検索」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.名前（姓）で「山田」を入力する
+7.XAMMPのMySQL「Stop」ボタンをクリック
+8.「検索」ボタンをクリックする
+9.３秒以内に、XAMMPのMySQL「Start」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリックする
+7.削除されていない一番上のアカウントの「更新」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>更新ボタンを押した行のアカウント情報が更新画面でも表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリックする
+7.削除されていない一番上のアカウントの「削除」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>更新ボタンを押した行のアカウント情報が削除画面でも表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリックする
+7.「削除フラグ：有効」の一番上のアカウントの「更新」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>更新ボタンの代わりに、テキスト「削除済み」が表示されており、操作できない</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリックする
+7.「削除フラグ：無効」の一番上のアカウントの「削除」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>削除ボタンの代わりに、テキスト「削除済み」が表示されており、操作できない</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1506,6 +1780,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
+        <f>ROW(A4)-3</f>
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1520,6 +1795,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
+        <f t="shared" ref="A5:A72" si="0">ROW(A5)-3</f>
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1534,6 +1810,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1545,6 +1822,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1556,6 +1834,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -1567,6 +1846,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1581,6 +1861,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -1595,6 +1876,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1609,6 +1891,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -1620,6 +1903,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -1631,6 +1915,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" t="s">
@@ -1645,6 +1930,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -1659,6 +1945,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -1673,6 +1960,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -1687,6 +1975,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" t="s">
@@ -1698,6 +1987,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -1709,6 +1999,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -1720,6 +2011,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" t="s">
@@ -1731,6 +2023,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -1742,6 +2035,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" t="s">
@@ -1753,6 +2047,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" t="s">
@@ -1764,6 +2059,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -1775,6 +2071,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" t="s">
@@ -1786,6 +2083,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -1797,6 +2095,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" t="s">
@@ -1808,6 +2107,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" t="s">
@@ -1819,6 +2119,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" t="s">
@@ -1830,6 +2131,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" t="s">
@@ -1840,183 +2142,264 @@
       </c>
     </row>
     <row r="32" spans="1:7">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
       <c r="C35" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
       <c r="C37" s="32" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="39" spans="1:3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
@@ -2024,10 +2407,11 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -2035,167 +2419,224 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>41</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
         <v>75</v>
-      </c>
-      <c r="C63" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
         <v>82</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <f t="shared" ref="A73:A74" si="1">ROW(A73)-3</f>
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="F17" workbookViewId="0">
+    <sheetView topLeftCell="E25" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:M25"/>
     </sheetView>
   </sheetViews>
@@ -2237,7 +2678,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2390,46 +2831,46 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="33">
       <c r="A15" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="100.5">
@@ -2448,13 +2889,13 @@
         <v>5</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -2481,13 +2922,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -2517,13 +2958,13 @@
         <v>9</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2553,13 +2994,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2589,13 +3030,13 @@
         <v>11</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2604,7 +3045,7 @@
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N20" s="22"/>
     </row>
@@ -2624,13 +3065,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -2660,13 +3101,13 @@
         <v>14</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -2693,13 +3134,13 @@
         <v>16</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2726,13 +3167,13 @@
         <v>18</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -2759,13 +3200,13 @@
         <v>19</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3065,7 +3506,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3312,46 +3753,46 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A16" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="50.25">
@@ -3369,13 +3810,13 @@
         <v>21</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -3399,13 +3840,13 @@
         <v>23</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -3429,13 +3870,13 @@
         <v>25</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -3459,13 +3900,13 @@
         <v>27</v>
       </c>
       <c r="F20" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>116</v>
-      </c>
       <c r="H20" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -3489,13 +3930,13 @@
         <v>29</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -3519,13 +3960,13 @@
         <v>30</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -3549,13 +3990,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -3579,13 +4020,13 @@
         <v>32</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -3609,13 +4050,13 @@
         <v>33</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3639,13 +4080,13 @@
         <v>34</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -3671,13 +4112,13 @@
         <v>35</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -3703,13 +4144,13 @@
         <v>36</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -3735,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BA92F1-2646-44AA-BD77-57FDF874DBFD}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3744,6 +4185,7 @@
     <col min="5" max="5" width="42.875" customWidth="1"/>
     <col min="6" max="6" width="52.875" customWidth="1"/>
     <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3766,9 +4208,7 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>1</v>
-      </c>
+      <c r="F2" s="33"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
@@ -3790,7 +4230,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
@@ -3947,7 +4387,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
@@ -3962,7 +4402,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="23"/>
@@ -3970,12 +4410,14 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
       <c r="B18">
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
@@ -4029,46 +4471,46 @@
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" ht="408.75" customHeight="1">
@@ -4086,19 +4528,19 @@
         <v>38</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K25" s="19">
         <v>45138</v>
@@ -4119,22 +4561,22 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K26" s="19">
         <v>45147</v>
@@ -4156,19 +4598,19 @@
         <v>40</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K27" s="19">
         <v>45147</v>
@@ -4190,19 +4632,19 @@
         <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K28" s="19">
         <v>45147</v>
@@ -4224,19 +4666,19 @@
         <v>42</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K29" s="19">
         <v>45147</v>
@@ -4258,19 +4700,19 @@
         <v>43</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K30" s="19">
         <v>45147</v>
@@ -4292,19 +4734,19 @@
         <v>44</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K31" s="19">
         <v>45147</v>
@@ -4326,19 +4768,19 @@
         <v>45</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K32" s="19">
         <v>45147</v>
@@ -4360,19 +4802,19 @@
         <v>46</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K33" s="19">
         <v>45147</v>
@@ -4394,19 +4836,19 @@
         <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K34" s="19">
         <v>45147</v>
@@ -4428,19 +4870,19 @@
         <v>48</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K35" s="19">
         <v>45147</v>
@@ -4462,19 +4904,19 @@
         <v>49</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K36" s="19">
         <v>45147</v>
@@ -4496,30 +4938,30 @@
         <v>50</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K37" s="19">
         <v>45147</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" ht="336.75">
+    <row r="38" spans="1:14" s="4" customFormat="1" ht="354">
       <c r="A38" s="13"/>
       <c r="B38" s="13">
         <v>36</v>
@@ -4529,30 +4971,901 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" ht="404.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13">
+        <v>37</v>
+      </c>
+      <c r="C39" s="13">
+        <v>37</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
+      <c r="F39" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" ht="354">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13">
+        <v>38</v>
+      </c>
+      <c r="C40" s="13">
+        <v>38</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:E24" xr:uid="{48C1811D-49B4-498A-806B-E704DAB5C645}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446963F-9C81-48F7-81F5-BB5170EFC699}">
+  <dimension ref="A2:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <f>シナリオ一覧!A46</f>
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <f>シナリオ一覧!A47</f>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <f>シナリオ一覧!A48</f>
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <f>シナリオ一覧!A49</f>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <f>シナリオ一覧!A50</f>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <f>シナリオ一覧!A51</f>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <f>シナリオ一覧!A52</f>
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <f>シナリオ一覧!A53</f>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <f>シナリオ一覧!A54</f>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <f>シナリオ一覧!A55</f>
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <f>シナリオ一覧!A56</f>
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="F14"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <f>シナリオ一覧!A57</f>
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <f>シナリオ一覧!A58</f>
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="135">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>39</v>
+      </c>
+      <c r="C26" s="13">
+        <v>39</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13">
+        <v>40</v>
+      </c>
+      <c r="C27" s="13">
+        <v>40</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
+        <v>41</v>
+      </c>
+      <c r="C28" s="13">
+        <v>41</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="135">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13">
+        <v>42</v>
+      </c>
+      <c r="C29" s="13">
+        <v>42</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13">
+        <v>43</v>
+      </c>
+      <c r="C30" s="13">
+        <v>43</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13">
+        <v>44</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13">
+        <v>45</v>
+      </c>
+      <c r="C32" s="13">
+        <v>45</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13">
+        <v>46</v>
+      </c>
+      <c r="C33" s="13">
+        <v>46</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="185.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13">
+        <v>47</v>
+      </c>
+      <c r="C34" s="13">
+        <v>47</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13">
+        <v>48</v>
+      </c>
+      <c r="C35" s="13">
+        <v>48</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13">
+        <v>49</v>
+      </c>
+      <c r="C36" s="13">
+        <v>49</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13">
+        <v>50</v>
+      </c>
+      <c r="C37" s="13">
+        <v>50</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13">
+        <v>51</v>
+      </c>
+      <c r="C38" s="13">
+        <v>51</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="19">
+        <v>45149</v>
+      </c>
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" ht="336.75">
+    <row r="39" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A39" s="13"/>
-      <c r="B39" s="13">
-        <v>37</v>
-      </c>
-      <c r="C39" s="13">
-        <v>37</v>
-      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
       <c r="H39" s="31"/>
@@ -4563,34 +5876,883 @@
       <c r="M39" s="21"/>
       <c r="N39" s="22"/>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" ht="336.75">
+    <row r="40" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A40" s="13"/>
-      <c r="B40" s="13">
-        <v>38</v>
-      </c>
-      <c r="C40" s="13">
-        <v>38</v>
-      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="E40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
       <c r="H40" s="31"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="19"/>
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
       <c r="N40" s="22"/>
     </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:E24" xr:uid="{48C1811D-49B4-498A-806B-E704DAB5C645}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:E25" xr:uid="{32B970B6-FE92-4B5D-A5F8-5FE662D5888C}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98651244-5A40-4764-9A08-859ABC36F31B}">
+  <dimension ref="A2:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <f>シナリオ一覧!A46</f>
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <f>シナリオ一覧!A47</f>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <f>シナリオ一覧!A48</f>
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <f>シナリオ一覧!A49</f>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <f>シナリオ一覧!A50</f>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <f>シナリオ一覧!A51</f>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <f>シナリオ一覧!A52</f>
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <f>シナリオ一覧!A53</f>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <f>シナリオ一覧!A54</f>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <f>シナリオ一覧!A55</f>
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <f>シナリオ一覧!A56</f>
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="F14"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <f>シナリオ一覧!A57</f>
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <f>シナリオ一覧!A58</f>
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="135">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>39</v>
+      </c>
+      <c r="C26" s="13">
+        <v>39</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13">
+        <v>40</v>
+      </c>
+      <c r="C27" s="13">
+        <v>40</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
+        <v>41</v>
+      </c>
+      <c r="C28" s="13">
+        <v>41</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="135">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13">
+        <v>42</v>
+      </c>
+      <c r="C29" s="13">
+        <v>42</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13">
+        <v>43</v>
+      </c>
+      <c r="C30" s="13">
+        <v>43</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13">
+        <v>44</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13">
+        <v>45</v>
+      </c>
+      <c r="C32" s="13">
+        <v>45</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13">
+        <v>46</v>
+      </c>
+      <c r="C33" s="13">
+        <v>46</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="185.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13">
+        <v>47</v>
+      </c>
+      <c r="C34" s="13">
+        <v>47</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13">
+        <v>48</v>
+      </c>
+      <c r="C35" s="13">
+        <v>48</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="151.5">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13">
+        <v>49</v>
+      </c>
+      <c r="C36" s="13">
+        <v>49</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13">
+        <v>50</v>
+      </c>
+      <c r="C37" s="13">
+        <v>50</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13">
+        <v>51</v>
+      </c>
+      <c r="C38" s="13">
+        <v>51</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="19">
+        <v>45149</v>
+      </c>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:E25" xr:uid="{0AEF9FF5-AED2-4042-8091-DDCC8C1C0687}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26807"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E511D835-AF5E-4085-96E6-48AEE492504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBAAD34-C3B9-4798-8C0F-3E9695A5844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="211">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -242,31 +242,31 @@
     <t>アカウント更新</t>
   </si>
   <si>
-    <t>管理者権限アカウントで、アカウント更新フォームに必要な情報を入力してアカウントを更新する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント更新フォームに空欄があるまま更新を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント更新フォームにパスワード空欄のまま更新する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント更新フォームに変更しないまま更新する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント更新フォームに不適切な文字の入力を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント更新フォームに不適切な文字を入力後、適切な文字を入力し、アカウント更新する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント更新フォームに必要な情報を入力してアカウントを更新する際にDB接続に失敗する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント更新フォームに必要な情報を入力してアカウントを更新する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント更新する</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、ログイン中のアカウントの権限を一般に変更を試みる</t>
+    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに空欄があるまま更新を試みる</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームにパスワード空欄のまま更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに変更しないまま更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに不適切な文字の入力を試みる</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに不適切な文字を入力後、適切な文字を入力し、アカウント更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する際にDB接続に失敗する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント更新する</t>
+  </si>
+  <si>
+    <t>ログイン中のアカウントの権限を一般に変更を試みる</t>
   </si>
   <si>
     <t>アカウント削除</t>
@@ -1178,6 +1178,203 @@
   </si>
   <si>
     <t>削除ボタンの代わりに、テキスト「削除済み」が表示されており、操作できない</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.「名前（姓）」の入力フォームへ「更新」を入力する
+9.「名前（名）」の入力フォームへ「三郎」を入力する
+10.「カナ（姓）」の入力フォームへ「コウシン」を入力する
+11.「カナ（名）」の入力フォームへ「サブロウ」を入力する
+12.「メールアドレス」の入力フォームへ「koushin1@mail.com」を入力する
+13.「パスワード」の入力フォームへ「123abc」を入力する
+14.「性別」のリストから「男」を選択する
+15.「郵便番号」の入力フォームへ「6543210」を入力する
+16.「住所（都道府県）」のリストから「沖縄」を選択する
+17.「住所（市区町村）」の入力フォームへ「那覇市」を入力する
+18.「住所（番地）」の入力フォームへ「0-1-0」を入力する
+19.「アカウント権限」のリストから「一般」を選択する
+20.確認ボタンをクリックする
+21.更新するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>アカウント一覧に表示される一番上のアカウントへ入力したデータが反映されている
+更新日時へ更新した日が表示されている</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.「名前（姓）」の入力フォームの文字を削除する
+9.「名前（名）」の入力フォームの文字を削除する
+10.「カナ（姓）」の入力フォームの文字を削除する
+11.「カナ（名）」の入力フォームの文字を削除する
+12.「メールアドレス」の入力フォームの文字を削除する
+13.「パスワード」の入力フォームの文字を削除する
+14.「性別」のリストから「男」を選択する
+15.「郵便番号」の入力フォームの文字を削除する
+16.「住所（都道府県）」のリストから「空欄」を選択する
+17.「住所（市区町村）」の入力フォームの文字を削除する
+18.「住所（番地）」の入力フォームの文字を削除する
+19.「アカウント権限」のリストから「一般」を選択する
+20.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>パスワード・性別・アカウント権限以外の入力欄の下部へ、未入力、未選択のエラーが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.「名前（姓）」の入力フォームへ「更新」を入力する
+9.「名前（名）」の入力フォームへ「三郎」を入力する
+10.「カナ（姓）」の入力フォームへ「コウシン」を入力する
+11.「カナ（名）」の入力フォームへ「サブロウ」を入力する
+12.「メールアドレス」の入力フォームへ「koushin1@mail.com」を入力する
+13.「パスワード」の入力フォームには入力しない
+14.「性別」のリストから「男」を選択する
+15.「郵便番号」の入力フォームへ「6543210」を入力する
+16.「住所（都道府県）」のリストから「沖縄」を選択する
+17.「住所（市区町村）」の入力フォームへ「那覇市」を入力する
+18.「住所（番地）」の入力フォームへ「0-1-0」を入力する
+19.「アカウント権限」のリストから「一般」を選択する
+20.確認ボタンをクリックする
+21.更新するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>未入力エラーにならず、更新が成功する</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.確認ボタンをクリックする
+9.更新するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>エラーにならず、更新が成功する</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.「名前（姓）」の入力フォームへ「simon」を入力する
+9.「名前（名）」の入力フォームへ「thornley」を入力する
+10.「カナ（姓）」の入力フォームへ「サイモン」を入力する
+11.「カナ（名）」の入力フォームへ「ソーンリー」を入力する
+12.「メールアドレス」の入力フォームへ「koushin1@mail.com」を入力する
+13.メモ帳で入力していた「あいうえお」をコピーして「パスワード」の入力フォームへ、ペーストする
+14.「性別」のリストから「男」を選択する
+15.メモ帳で入力していた「あいうえお」をコピーして「郵便番号」の入力フォームへ、ペーストする
+16.「住所（都道府県）」のリストから「沖縄県」を選択する
+17.「住所（市区町村）」の入力フォームへ「naha」を入力する
+18.「住所（番地）」の入力フォームへ「一の1の➀」を入力する
+19.「アカウント権限」のリストから「一般」を選択する
+20.確認ボタンをクリックする
+21.更新するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>名前（姓）、名前（名）、パスワード、住所（市区町村）、住所（番地）では、文字種別エラーが表示される</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「さいもん」を入力する
+2.「名前（名）」の入力フォームへ「そーんりー」を入力する
+3.「カナ（姓）」の入力フォームへ「サイモン」を入力する
+4.「カナ（名）」の入力フォームへ「ソーンリー」を入力する
+5.「メールアドレス」の入力フォームへ「koushin1@mail.com」を入力する
+6.「パスワード」の入力フォームへ「abc123」を入力する
+7.「性別」のリストから「男」を選択する
+8.「郵便番号」の入力フォームへ「9876543」を入力する
+16.「住所（都道府県）」のリストから「埼玉県」を選択する
+17.「住所（市区町村）」の入力フォームへ「さいたま市」を入力する
+18.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+19.「アカウント権限」のリストから「一般」を選択する
+20.確認ボタンをクリックする
+21.更新するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>エラーが表示されず更新が成功する</t>
+  </si>
+  <si>
+    <t>既に登録のあるメールアドレスへの変更を試みる</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.「メールアドレス」の入力フォームへ「test1@mail.com」を入力する
+9.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>メールアドレスの重複エラーとなり、確認画面に遷移しない</t>
+  </si>
+  <si>
+    <t>重複チェックされない</t>
+  </si>
+  <si>
+    <t>重複チェックをいれる</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.「名前（姓）」の入力フォームへ「更新」を入力する
+9.「名前（名）」の入力フォームへ「三郎」を入力する
+10.「カナ（姓）」の入力フォームへ「コウシン」を入力する
+11.「カナ（名）」の入力フォームへ「サブロウ」を入力する
+12.「メールアドレス」の入力フォームへ「koushin1@mail.com」を入力する
+13.「パスワード」の入力フォームへ「abc123」を入力する
+14.「性別」のリストから「男」を選択する
+15.「郵便番号」の入力フォームへ「6543210」を入力する
+16.「住所（都道府県）」のリストから「沖縄」を選択する
+17.「住所（市区町村）」の入力フォームへ「那覇市」を入力する
+18.「住所（番地）」の入力フォームへ「0-1-0」を入力する
+19.「アカウント権限」のリストから「一般」を選択する
+20.確認ボタンをクリックする
+21.更新するボタンをクリックする</t>
   </si>
 </sst>
 </file>
@@ -1751,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2422,12 +2619,24 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
@@ -2438,7 +2647,7 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2450,7 +2659,7 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2462,7 +2671,7 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2474,7 +2683,7 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2486,7 +2695,7 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2498,7 +2707,7 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2510,7 +2719,7 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2518,23 +2727,11 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2648,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,133 +2879,133 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="4"/>
@@ -3505,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1129B-599B-4584-A2DF-0E6AF0C2E230}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3539,16 +3736,13 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A3" s="3" t="s">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="23"/>
@@ -3556,16 +3750,13 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A4" s="3" t="s">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="23"/>
@@ -3573,16 +3764,13 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A5" s="3" t="s">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="23"/>
@@ -3590,16 +3778,13 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A6" s="3" t="s">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="23"/>
@@ -3607,16 +3792,13 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A7" s="3" t="s">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="23"/>
@@ -3624,16 +3806,13 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A8" s="3" t="s">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="23"/>
@@ -3641,16 +3820,13 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A9" s="3" t="s">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="23"/>
@@ -3658,16 +3834,13 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A10" s="3" t="s">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="23"/>
@@ -3675,16 +3848,13 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A11" s="3" t="s">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="23"/>
@@ -3692,16 +3862,13 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A12" s="3" t="s">
+      <c r="A12">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="23"/>
@@ -3709,35 +3876,31 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A13" s="1" t="s">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s">
         <v>35</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="23"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A14" s="4" t="s">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="23"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -4176,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BA92F1-2646-44AA-BD77-57FDF874DBFD}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4200,10 +4363,10 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -4212,44 +4375,44 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -4258,11 +4421,11 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7">
-        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -4271,11 +4434,11 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8">
-        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -4284,11 +4447,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -4297,11 +4460,11 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -4310,11 +4473,11 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11">
-        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -4323,11 +4486,11 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12">
-        <v>32</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>47</v>
@@ -4336,11 +4499,11 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13">
-        <v>33</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>48</v>
@@ -4350,11 +4513,11 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14">
-        <v>34</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>49</v>
@@ -4365,11 +4528,11 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -4380,11 +4543,11 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16">
-        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -4395,10 +4558,10 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A17" t="s">
+      <c r="A17">
         <v>37</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
@@ -4410,11 +4573,11 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18">
-        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -5083,7 +5246,7 @@
   <dimension ref="A2:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5106,10 +5269,10 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -5118,48 +5281,44 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
-      </c>
-      <c r="B4">
-        <f>シナリオ一覧!A46</f>
-        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5">
-        <f>シナリオ一覧!A47</f>
-        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>54</v>
-      </c>
-      <c r="B6">
-        <f>シナリオ一覧!A48</f>
-        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
-      </c>
-      <c r="B7">
-        <f>シナリオ一覧!A49</f>
-        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -5168,12 +5327,11 @@
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
-      </c>
-      <c r="B8">
-        <f>シナリオ一覧!A50</f>
-        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -5182,12 +5340,11 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
-      </c>
-      <c r="B9">
-        <f>シナリオ一覧!A51</f>
-        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -5196,12 +5353,11 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
-      </c>
-      <c r="B10">
-        <f>シナリオ一覧!A52</f>
-        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
@@ -5210,12 +5366,11 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>54</v>
-      </c>
-      <c r="B11">
-        <f>シナリオ一覧!A53</f>
-        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -5224,12 +5379,11 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
-      </c>
-      <c r="B12">
-        <f>シナリオ一覧!A54</f>
-        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -5238,12 +5392,11 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
-      </c>
-      <c r="B13">
-        <f>シナリオ一覧!A55</f>
-        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
@@ -5252,12 +5405,11 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
-      </c>
-      <c r="B14">
-        <f>シナリオ一覧!A56</f>
-        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -5267,11 +5419,10 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15">
-        <f>シナリオ一覧!A57</f>
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
       <c r="C15" t="s">
@@ -5283,12 +5434,11 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
-      </c>
-      <c r="B16">
-        <f>シナリオ一覧!A58</f>
-        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -5923,7 +6073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98651244-5A40-4764-9A08-859ABC36F31B}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5945,10 +6097,10 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -5957,181 +6109,144 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A6">
         <v>54</v>
       </c>
-      <c r="B4">
-        <f>シナリオ一覧!A46</f>
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A7">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5">
-        <f>シナリオ一覧!A47</f>
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6">
-        <f>シナリオ一覧!A48</f>
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7">
-        <f>シナリオ一覧!A49</f>
-        <v>46</v>
+      <c r="B7" t="s">
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
-        <f>シナリオ一覧!A50</f>
-        <v>47</v>
+      <c r="A8">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9">
-        <f>シナリオ一覧!A51</f>
-        <v>48</v>
+      <c r="A9">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10">
-        <f>シナリオ一覧!A52</f>
-        <v>49</v>
+      <c r="A10">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11">
-        <f>シナリオ一覧!A53</f>
-        <v>50</v>
+      <c r="A11">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <f>シナリオ一覧!A54</f>
-        <v>51</v>
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <f>シナリオ一覧!A55</f>
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="F13"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <f>シナリオ一覧!A56</f>
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
       <c r="D14" s="4"/>
       <c r="F14"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15">
-        <f>シナリオ一覧!A57</f>
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15" s="4"/>
       <c r="E15" s="23"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16">
-        <f>シナリオ一覧!A58</f>
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23"/>
       <c r="F16" s="4"/>
@@ -6253,25 +6368,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" ht="135">
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="387.75">
       <c r="A26" s="13">
         <v>1</v>
       </c>
       <c r="B26" s="13">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C26" s="13">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>103</v>
@@ -6283,31 +6398,31 @@
         <v>103</v>
       </c>
       <c r="K26" s="19">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" ht="151.5">
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="370.5">
       <c r="A27" s="13">
         <v>1</v>
       </c>
       <c r="B27" s="13">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C27" s="13">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>103</v>
@@ -6319,29 +6434,29 @@
         <v>103</v>
       </c>
       <c r="K27" s="19">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="21"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" ht="168">
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="387.75">
       <c r="A28" s="13"/>
       <c r="B28" s="13">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C28" s="13">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>103</v>
@@ -6353,29 +6468,29 @@
         <v>103</v>
       </c>
       <c r="K28" s="19">
-        <v>45149</v>
+        <v>45159</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="21"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" ht="135">
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="185.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C29" s="13">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>103</v>
@@ -6387,29 +6502,29 @@
         <v>103</v>
       </c>
       <c r="K29" s="19">
-        <v>45149</v>
+        <v>45159</v>
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="21"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" ht="151.5">
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="409.6">
       <c r="A30" s="13"/>
       <c r="B30" s="13">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C30" s="13">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>103</v>
@@ -6421,29 +6536,31 @@
         <v>103</v>
       </c>
       <c r="K30" s="19">
-        <v>45149</v>
+        <v>45159</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="21"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" ht="168">
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="241.5" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="13">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C31" s="13">
-        <v>44</v>
-      </c>
-      <c r="D31" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="D31" s="14">
+        <v>56</v>
+      </c>
       <c r="E31" s="15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>103</v>
@@ -6455,246 +6572,174 @@
         <v>103</v>
       </c>
       <c r="K31" s="19">
-        <v>45149</v>
+        <v>45159</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="21"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" ht="151.5">
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="185.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C32" s="13">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="K32" s="19">
-        <v>45149</v>
+        <v>45159</v>
       </c>
       <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" ht="168">
+      <c r="M32" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="387.75">
       <c r="A33" s="13"/>
       <c r="B33" s="13">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C33" s="13">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K33" s="19">
-        <v>45149</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" ht="185.25">
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="81" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="13">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C34" s="13">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" s="19">
-        <v>45149</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" ht="151.5">
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="81" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C35" s="13">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" s="19">
-        <v>45149</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" ht="151.5">
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A36" s="13"/>
       <c r="B36" s="13">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C36" s="13">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="19">
-        <v>45149</v>
-      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" ht="168">
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A37" s="13"/>
       <c r="B37" s="13">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C37" s="13">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K37" s="19">
-        <v>45149</v>
-      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" ht="168">
+    <row r="38" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A38" s="13"/>
       <c r="B38" s="13">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C38" s="13">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D38" s="14"/>
-      <c r="E38" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="19">
-        <v>45149</v>
-      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>

--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBAAD34-C3B9-4798-8C0F-3E9695A5844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E54B4FC-E4F3-4971-9F53-8C59F8B788F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="アカウント登録" sheetId="4" r:id="rId4"/>
     <sheet name="アカウント一覧" sheetId="5" r:id="rId5"/>
     <sheet name="アカウント更新" sheetId="6" r:id="rId6"/>
+    <sheet name="アカウント削除" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="243">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -242,28 +243,31 @@
     <t>アカウント更新</t>
   </si>
   <si>
-    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する</t>
-  </si>
-  <si>
-    <t>アカウント更新フォームに空欄があるまま更新を試みる</t>
-  </si>
-  <si>
-    <t>アカウント更新フォームにパスワード空欄のまま更新する</t>
-  </si>
-  <si>
-    <t>アカウント更新フォームに変更しないまま更新する</t>
-  </si>
-  <si>
-    <t>アカウント更新フォームに不適切な文字の入力を試みる</t>
-  </si>
-  <si>
-    <t>アカウント更新フォームに不適切な文字を入力後、適切な文字を入力し、アカウント更新する</t>
-  </si>
-  <si>
-    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する際にDB接続に失敗する</t>
-  </si>
-  <si>
-    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント更新する</t>
+    <t>必要な情報を入力してアカウントを更新する</t>
+  </si>
+  <si>
+    <t>空欄があるまま更新を試みる</t>
+  </si>
+  <si>
+    <t>パスワード空欄のまま更新する</t>
+  </si>
+  <si>
+    <t>変更しないまま更新する</t>
+  </si>
+  <si>
+    <t>不適切な文字の入力を試みる</t>
+  </si>
+  <si>
+    <t>不適切な文字を入力後、適切な文字を入力し、アカウント更新する</t>
+  </si>
+  <si>
+    <t>既に登録のあるメールアドレスへの変更を試みる</t>
+  </si>
+  <si>
+    <t>必要な情報を入力してアカウントを更新する際にDB接続に失敗する</t>
+  </si>
+  <si>
+    <t>必要な情報を入力してアカウントを更新する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント更新する</t>
   </si>
   <si>
     <t>ログイン中のアカウントの権限を一般に変更を試みる</t>
@@ -272,16 +276,19 @@
     <t>アカウント削除</t>
   </si>
   <si>
-    <t>管理者権限アカウントで、アカウント削除を取りやめる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント削除するボタンをクリック後、取り消したいので前に戻る</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、ログイン中のアカウント削除を試みる</t>
-  </si>
-  <si>
-    <t>管理者権限アカウントで、アカウント削除後、復元を試みる</t>
+    <t>アカウント削除する</t>
+  </si>
+  <si>
+    <t>アカウント削除を取りやめる</t>
+  </si>
+  <si>
+    <t>アカウント削除するボタンをクリック後、取り消したいので前に戻る</t>
+  </si>
+  <si>
+    <t>ログイン中のアカウント削除を試みる</t>
+  </si>
+  <si>
+    <t>アカウント削除後、復元を試みる</t>
   </si>
   <si>
     <t>セキュリティ</t>
@@ -1180,6 +1187,36 @@
     <t>削除ボタンの代わりに、テキスト「削除済み」が表示されており、操作できない</t>
   </si>
   <si>
+    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに空欄があるまま更新を試みる</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームにパスワード空欄のまま更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに変更しないまま更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに不適切な文字の入力を試みる</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに不適切な文字を入力後、適切な文字を入力し、アカウント更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームで既に登録のあるメールアドレスへの変更を試みる</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する際にDB接続に失敗する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームに必要な情報を入力してアカウントを更新する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント更新する</t>
+  </si>
+  <si>
+    <t>アカウント更新フォームでログイン中のアカウントの権限を一般に変更を試みる</t>
+  </si>
+  <si>
     <t>1.TOPページにアクセスする
 2.上部メニュー「ログイン」をクリック
 3.以下ログイン情報を入力する
@@ -1327,9 +1364,6 @@
     <t>エラーが表示されず更新が成功する</t>
   </si>
   <si>
-    <t>既に登録のあるメールアドレスへの変更を試みる</t>
-  </si>
-  <si>
     <t>1.TOPページにアクセスする
 2.上部メニュー「ログイン」をクリック
 3.以下ログイン情報を入力する
@@ -1375,6 +1409,171 @@
 19.「アカウント権限」のリストから「一般」を選択する
 20.確認ボタンをクリックする
 21.更新するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>更新に失敗し、テキスト「エラーが発生したためアカウント更新できません。」が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.一番上のアカウントの「更新」ボタンをクリック
+8.「名前（姓）」の入力フォームへ「更新」を入力する
+9.「名前（名）」の入力フォームへ「三郎」を入力する
+10.「カナ（姓）」の入力フォームへ「コウシン」を入力する
+11.「カナ（名）」の入力フォームへ「サブロウ」を入力する
+12.「メールアドレス」の入力フォームへ「koushin1@mail.com」を入力する
+13.「パスワード」の入力フォームへ「abc123」を入力する
+14.「性別」のリストから「男」を選択する
+15.「郵便番号」の入力フォームへ「6543210」を入力する
+16.「住所（都道府県）」のリストから「沖縄」を選択する
+17.「住所（市区町村）」の入力フォームへ「那覇市」を入力する
+18.「住所（番地）」の入力フォームへ「0-1-0」を入力する
+19.「アカウント権限」のリストから「一般」を選択する
+20.確認ボタンをクリックする
+21.XAMMPのMySQL「STOP」ボタンをクリック
+22.更新するボタンをクリックする
+22.3秒以内にXAMMPのMySQL「Start」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新が成功し、更新完了画面が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：henkou@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.検索フォームのメールアドレスへ「henkou」を入力し、検索ボタンをクリック
+7.henkou@mail.comアカウントの「更新」ボタンをクリック
+8.「アカウント権限」のリストから「一般」を選択する
+9.確認するボタンをクリック
+10.更新するボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新できてしまう
+ログアウトするまで管理者として操作可能</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.名前（姓）に「削除」のあるのアカウントの「削除」ボタンをクリック
+8.確認するボタンをクリック
+9.削除するボタンをクリック</t>
+  </si>
+  <si>
+    <t>削除完了画面が表示され、アカウントの削除フラグに1が入る</t>
+  </si>
+  <si>
+    <t>河本</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.名前（姓）に「削除」のあるのアカウントの「削除」ボタンをクリック
+8.確認するボタンをクリック
+9.前に戻るボタンをクリック</t>
+  </si>
+  <si>
+    <t>削除確認画面に戻り、手順7で選択したアカウント情報が表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.名前（姓）に「削除」のあるのアカウントの「削除」ボタンをクリック
+8.確認するボタンをクリック
+9.削除するボタンをクリック
+10.ブラウザのバックボタンをクリック
+11.ブラウザの更新ボタンをクリック
+12.前に戻るボタンをクリック</t>
+  </si>
+  <si>
+    <t>「データ呼び出しに失敗しました」のテキストが表示される</t>
+  </si>
+  <si>
+    <t>Fatal error</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：sakujo1@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.メールアドレス「sakujo1」を検索し、「sakujo1@mail.com」の「削除」ボタンをクリック
+8.確認するボタンをクリック
+9.削除するボタンをクリック</t>
+  </si>
+  <si>
+    <t>削除に失敗し、テキスト「エラーが発生したためアカウント削除できません。」が表示される</t>
+  </si>
+  <si>
+    <t>削除できてしまう</t>
+  </si>
+  <si>
+    <t>アカウントを削除する際にDB接続に失敗する</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.名前（姓）に「削除」のあるのアカウントの「削除」ボタンをクリック
+8.確認するボタンをクリック
+9.XAMMPのMySQL「Stop」ボタンをクリック
+10.削除するボタンをクリック</t>
+  </si>
+  <si>
+    <t>アカウントを削除する際に、一時的にDB接続できなかったが、接続が復帰し、アカウント削除する</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント一覧」をクリック
+6.「全件表示」ボタンをクリック
+7.名前（姓）に「削除」のあるのアカウントの「削除」ボタンをクリック
+8.確認するボタンをクリック
+9.XAMMPのMySQL「Stop」ボタンをクリック
+10.削除するボタンをクリック
+11.3秒以内にXAMMPのMySQL「Start」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>削除に成功し、削除フラグに1が入る</t>
   </si>
 </sst>
 </file>
@@ -1948,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:C63"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C69" sqref="C65:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2727,12 +2926,24 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
@@ -2740,10 +2951,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2752,10 +2963,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2764,10 +2975,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2776,10 +2987,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2787,12 +2998,6 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
@@ -2800,10 +3005,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2812,10 +3017,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2824,10 +3029,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2875,7 +3080,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3028,46 +3233,46 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="33">
       <c r="A15" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="100.5">
@@ -3086,13 +3291,13 @@
         <v>5</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -3119,13 +3324,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -3155,13 +3360,13 @@
         <v>9</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -3191,13 +3396,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -3227,13 +3432,13 @@
         <v>11</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -3242,7 +3447,7 @@
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N20" s="22"/>
     </row>
@@ -3262,13 +3467,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -3298,13 +3503,13 @@
         <v>14</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -3331,13 +3536,13 @@
         <v>16</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -3364,13 +3569,13 @@
         <v>18</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -3397,13 +3602,13 @@
         <v>19</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3703,7 +3908,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3916,46 +4121,46 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A16" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="50.25">
@@ -3973,13 +4178,13 @@
         <v>21</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -4003,13 +4208,13 @@
         <v>23</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -4033,13 +4238,13 @@
         <v>25</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>119</v>
-      </c>
       <c r="H19" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -4063,13 +4268,13 @@
         <v>27</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -4093,13 +4298,13 @@
         <v>29</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -4123,13 +4328,13 @@
         <v>30</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -4153,13 +4358,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -4183,13 +4388,13 @@
         <v>32</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -4213,13 +4418,13 @@
         <v>33</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -4243,13 +4448,13 @@
         <v>34</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -4275,13 +4480,13 @@
         <v>35</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -4307,13 +4512,13 @@
         <v>36</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -4634,46 +4839,46 @@
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A24" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" ht="408.75" customHeight="1">
@@ -4691,19 +4896,19 @@
         <v>38</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K25" s="19">
         <v>45138</v>
@@ -4727,19 +4932,19 @@
         <v>39</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K26" s="19">
         <v>45147</v>
@@ -4761,19 +4966,19 @@
         <v>40</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" s="19">
         <v>45147</v>
@@ -4795,19 +5000,19 @@
         <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K28" s="19">
         <v>45147</v>
@@ -4829,19 +5034,19 @@
         <v>42</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K29" s="19">
         <v>45147</v>
@@ -4863,19 +5068,19 @@
         <v>43</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K30" s="19">
         <v>45147</v>
@@ -4897,19 +5102,19 @@
         <v>44</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K31" s="19">
         <v>45147</v>
@@ -4931,19 +5136,19 @@
         <v>45</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K32" s="19">
         <v>45147</v>
@@ -4965,19 +5170,19 @@
         <v>46</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K33" s="19">
         <v>45147</v>
@@ -4999,19 +5204,19 @@
         <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K34" s="19">
         <v>45147</v>
@@ -5033,19 +5238,19 @@
         <v>48</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K35" s="19">
         <v>45147</v>
@@ -5067,19 +5272,19 @@
         <v>49</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36" s="19">
         <v>45147</v>
@@ -5101,26 +5306,26 @@
         <v>50</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K37" s="19">
         <v>45147</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N37" s="22"/>
     </row>
@@ -5137,29 +5342,29 @@
         <v>51</v>
       </c>
       <c r="F38" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>161</v>
-      </c>
       <c r="I38" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K38" s="19">
         <v>45149</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N38" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1" ht="404.25">
@@ -5175,19 +5380,19 @@
         <v>52</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K39" s="19">
         <v>45149</v>
@@ -5209,19 +5414,19 @@
         <v>53</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K40" s="19">
         <v>45149</v>
@@ -5245,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446963F-9C81-48F7-81F5-BB5170EFC699}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5522,46 +5727,46 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="135">
@@ -5579,19 +5784,19 @@
         <v>55</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K26" s="19">
         <v>45149</v>
@@ -5615,19 +5820,19 @@
         <v>56</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" s="19">
         <v>45149</v>
@@ -5649,19 +5854,19 @@
         <v>57</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K28" s="19">
         <v>45149</v>
@@ -5683,19 +5888,19 @@
         <v>58</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K29" s="19">
         <v>45149</v>
@@ -5717,19 +5922,19 @@
         <v>59</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K30" s="19">
         <v>45149</v>
@@ -5751,19 +5956,19 @@
         <v>60</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K31" s="19">
         <v>45149</v>
@@ -5785,19 +5990,19 @@
         <v>61</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K32" s="19">
         <v>45149</v>
@@ -5819,19 +6024,19 @@
         <v>62</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K33" s="19">
         <v>45149</v>
@@ -5853,19 +6058,19 @@
         <v>63</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K34" s="19">
         <v>45149</v>
@@ -5887,19 +6092,19 @@
         <v>64</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K35" s="19">
         <v>45149</v>
@@ -5921,19 +6126,19 @@
         <v>65</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36" s="19">
         <v>45149</v>
@@ -5955,19 +6160,19 @@
         <v>66</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K37" s="19">
         <v>45149</v>
@@ -5989,19 +6194,19 @@
         <v>67</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K38" s="19">
         <v>45149</v>
@@ -6073,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98651244-5A40-4764-9A08-859ABC36F31B}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6116,7 +6321,7 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
@@ -6127,7 +6332,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
@@ -6138,7 +6343,7 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
@@ -6149,7 +6354,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -6162,7 +6367,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="4"/>
@@ -6175,7 +6380,7 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="4"/>
@@ -6188,7 +6393,7 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="4"/>
@@ -6201,7 +6406,7 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="4"/>
@@ -6214,15 +6419,21 @@
         <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
       <c r="F13"/>
       <c r="G13" s="4"/>
     </row>
@@ -6326,46 +6537,46 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="387.75">
@@ -6380,22 +6591,22 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K26" s="19">
         <v>45152</v>
@@ -6416,22 +6627,22 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" s="19">
         <v>45152</v>
@@ -6450,22 +6661,22 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K28" s="19">
         <v>45159</v>
@@ -6484,22 +6695,22 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K29" s="19">
         <v>45159</v>
@@ -6518,22 +6729,22 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K30" s="19">
         <v>45159</v>
@@ -6554,22 +6765,22 @@
         <v>56</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K31" s="19">
         <v>45159</v>
@@ -6588,32 +6799,32 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K32" s="19">
         <v>45159</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="21" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="387.75">
@@ -6626,21 +6837,31 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="19"/>
+        <v>221</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="19">
+        <v>45161</v>
+      </c>
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" ht="81" customHeight="1">
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="409.6">
       <c r="A34" s="13"/>
       <c r="B34" s="13">
         <v>60</v>
@@ -6650,19 +6871,31 @@
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="19">
+        <v>45161</v>
+      </c>
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" ht="81" customHeight="1">
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="219">
       <c r="A35" s="13"/>
       <c r="B35" s="13">
         <v>61</v>
@@ -6672,26 +6905,36 @@
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="19">
+        <v>45161</v>
+      </c>
       <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
+      <c r="M35" s="21" t="s">
+        <v>226</v>
+      </c>
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A36" s="13"/>
-      <c r="B36" s="13">
-        <v>62</v>
-      </c>
-      <c r="C36" s="13">
-        <v>62</v>
-      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
@@ -6706,12 +6949,8 @@
     </row>
     <row r="37" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A37" s="13"/>
-      <c r="B37" s="13">
-        <v>63</v>
-      </c>
-      <c r="C37" s="13">
-        <v>63</v>
-      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
@@ -6726,12 +6965,8 @@
     </row>
     <row r="38" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A38" s="13"/>
-      <c r="B38" s="13">
-        <v>64</v>
-      </c>
-      <c r="C38" s="13">
-        <v>64</v>
-      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
@@ -6801,4 +7036,676 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB3D0-6AAA-41FF-857D-288A769CB3BC}">
+  <dimension ref="A2:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A4">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A8">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="F9"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="F10"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="F11"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="F12"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="F13"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="4"/>
+      <c r="F14"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="185.25">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>62</v>
+      </c>
+      <c r="C26" s="13">
+        <v>62</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="19">
+        <v>45161</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="185.25">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13">
+        <v>63</v>
+      </c>
+      <c r="C27" s="13">
+        <v>63</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="19">
+        <v>45161</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="235.5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
+        <v>64</v>
+      </c>
+      <c r="C28" s="13">
+        <v>64</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="19">
+        <v>45161</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="202.5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13">
+        <v>65</v>
+      </c>
+      <c r="C29" s="13">
+        <v>65</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="19">
+        <v>45161</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="202.5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13">
+        <v>66</v>
+      </c>
+      <c r="C30" s="13">
+        <v>66</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="19">
+        <v>45161</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="219">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13">
+        <v>67</v>
+      </c>
+      <c r="C31" s="13">
+        <v>67</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="19">
+        <v>45161</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13">
+        <v>68</v>
+      </c>
+      <c r="C32" s="13">
+        <v>68</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:E25" xr:uid="{DE360CBF-EF70-44AE-8E5B-D92C22A4BD08}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E54B4FC-E4F3-4971-9F53-8C59F8B788F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B25E71C-10EB-4341-8C7C-C2A6FD54A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ一覧" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,12 @@
     <sheet name="アカウント一覧" sheetId="5" r:id="rId5"/>
     <sheet name="アカウント更新" sheetId="6" r:id="rId6"/>
     <sheet name="アカウント削除" sheetId="7" r:id="rId7"/>
+    <sheet name="セキュリティ他" sheetId="8" r:id="rId8"/>
+    <sheet name="まとめ" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">まとめ!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="262">
   <si>
     <t>テストシナリオ</t>
   </si>
@@ -304,6 +309,9 @@
   </si>
   <si>
     <t>ログイン後、別のアカウントでログインする</t>
+  </si>
+  <si>
+    <t>アカウント登録を連打する</t>
   </si>
   <si>
     <t>ユーザー情報</t>
@@ -1519,6 +1527,9 @@
     <t>Fatal error</t>
   </si>
   <si>
+    <t>適切な画面遷移以外を別ページにリダイレクトさせる</t>
+  </si>
+  <si>
     <t>1.TOPページにアクセスする
 2.上部メニュー「ログイン」をクリック
 3.以下ログイン情報を入力する
@@ -1536,6 +1547,9 @@
   </si>
   <si>
     <t>削除できてしまう</t>
+  </si>
+  <si>
+    <t>ログイン中のアカウントは削除できないようにする</t>
   </si>
   <si>
     <t>アカウントを削除する際にDB接続に失敗する</t>
@@ -1574,6 +1588,99 @@
   </si>
   <si>
     <t>削除に成功し、削除フラグに1が入る</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：' OR '1'='1' --
+・パスワード：abc123
+4.【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.ブラウザを閉じる
+6.TOPページにアクセスする</t>
+  </si>
+  <si>
+    <t>管理者でログインしている状態となっており、アカウント登録・一覧・ログアウトメニューが表示される</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.直接「login.php」ログインページにアクセスする
+6.以下ログイン情報を入力する
+・メールアドレス：ippan@mail.com
+・パスワード：abc123
+7.【ログイン】ボタンをクリック</t>
+  </si>
+  <si>
+    <t>ログインページを開いた時点で、ログアウトされ、再度ログインした際には一般権限となる</t>
+  </si>
+  <si>
+    <t>1.TOPページにアクセスする
+2.上部メニュー「ログイン」をクリック
+3.以下ログイン情報を入力する
+・メールアドレス：kanri@mail.com
+・パスワード：abc123
+4.【ログイン】ボタンをクリック
+5.上部メニュー「アカウント登録」をクリック
+6.「名前（姓）」の入力フォームへ「連打」を入力する
+7.「名前（名）」の入力フォームへ「丸」を入力する
+8.「カナ（姓）」の入力フォームへ「レンダ」を入力する
+9.「カナ（名）」の入力フォームへ「マル」を入力する
+10.「メールアドレス」の入力フォームへ「renda@mail.com」を入力する
+11.「パスワード」の入力フォームへ「abc123」を入力する
+12.「性別」のリストから「男性」を選択する
+13.「郵便番号」の入力フォームへ「1231234」を入力する
+14.「住所（都道府県）」のリストから「東京都」を選択する
+15.「住所（市区町村）」の入力フォームへ「123」を入力する
+16.「住所（番地）」の入力フォームへ「123」を入力する
+17.「アカウント権限」のリストから「管理者」を選択する
+18.確認ボタンをクリックする
+19.XAMMPのMySQL「Stop」ボタンをクリックする
+19.3秒以内に登録するボタンを10回クリックする
+21.XAMMPのMySQL「Start」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>アカウント登録が成功し、DBには1つだけ登録されている</t>
+  </si>
+  <si>
+    <t>登録するをクリックした回数分登録されている</t>
+  </si>
+  <si>
+    <t>1回のみ適用する
+重複するメールアドレスをはじく</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>市区町村群のいずれか必要とする</t>
+  </si>
+  <si>
+    <t>一覧</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>ログイン中のアカウントの権限は変更できないようにする</t>
+  </si>
+  <si>
+    <t>削除</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1809,9 +1916,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2145,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C69" sqref="C65:C69"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2581,7 +2685,7 @@
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="31" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2593,7 +2697,7 @@
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2605,7 +2709,7 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2998,6 +3102,12 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
@@ -3005,10 +3115,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3020,7 +3130,7 @@
         <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3029,16 +3139,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3050,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1BEFE5-13A1-4F9E-8C67-8E1ECC73FAA4}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3072,15 +3176,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="25"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3223,8 +3327,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="5"/>
       <c r="D14" s="24"/>
       <c r="E14" s="26"/>
@@ -3233,46 +3337,46 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="33">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="100.5">
@@ -3291,16 +3395,20 @@
         <v>5</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="H16" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K16" s="19">
         <v>45138</v>
       </c>
@@ -3324,16 +3432,20 @@
         <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K17" s="19">
         <v>45138</v>
       </c>
@@ -3360,16 +3472,20 @@
         <v>9</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K18" s="19">
         <v>45138</v>
       </c>
@@ -3396,16 +3512,20 @@
         <v>10</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K19" s="19">
         <v>45138</v>
       </c>
@@ -3432,22 +3552,26 @@
         <v>11</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K20" s="19">
         <v>45138</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N20" s="22"/>
     </row>
@@ -3467,20 +3591,24 @@
         <v>12</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K21" s="19">
         <v>45138</v>
       </c>
-      <c r="L21" s="30"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
     </row>
@@ -3503,16 +3631,20 @@
         <v>14</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="H22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K22" s="19">
         <v>45138</v>
       </c>
@@ -3536,16 +3668,20 @@
         <v>16</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+        <v>118</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K23" s="19">
         <v>45138</v>
       </c>
@@ -3569,16 +3705,20 @@
         <v>18</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="H24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K24" s="19">
         <v>45138</v>
       </c>
@@ -3602,16 +3742,20 @@
         <v>19</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K25" s="19">
         <v>45138</v>
       </c>
@@ -3907,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1129B-599B-4584-A2DF-0E6AF0C2E230}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3918,8 +4062,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="25"/>
@@ -4121,46 +4265,46 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A16" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="50.25">
@@ -4178,16 +4322,20 @@
         <v>21</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K17" s="19">
         <v>45138</v>
       </c>
@@ -4208,16 +4356,20 @@
         <v>23</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K18" s="19">
         <v>45138</v>
       </c>
@@ -4238,16 +4390,20 @@
         <v>25</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K19" s="19">
         <v>45138</v>
       </c>
@@ -4268,16 +4424,20 @@
         <v>27</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K20" s="19">
         <v>45138</v>
       </c>
@@ -4298,16 +4458,20 @@
         <v>29</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K21" s="19">
         <v>45138</v>
       </c>
@@ -4328,16 +4492,20 @@
         <v>30</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K22" s="19">
         <v>45138</v>
       </c>
@@ -4358,16 +4526,20 @@
         <v>31</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K23" s="19">
         <v>45138</v>
       </c>
@@ -4388,16 +4560,20 @@
         <v>32</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K24" s="19">
         <v>45138</v>
       </c>
@@ -4418,16 +4594,20 @@
         <v>33</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K25" s="19">
         <v>45138</v>
       </c>
@@ -4448,16 +4628,20 @@
         <v>34</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K26" s="19">
         <v>45138</v>
       </c>
@@ -4480,16 +4664,20 @@
         <v>35</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+        <v>135</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K27" s="19">
         <v>45138</v>
       </c>
@@ -4512,16 +4700,20 @@
         <v>36</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="K28" s="19">
         <v>45138</v>
       </c>
@@ -4544,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BA92F1-2646-44AA-BD77-57FDF874DBFD}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="F39" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4558,8 +4750,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="25"/>
@@ -4576,7 +4768,7 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
@@ -4697,7 +4889,7 @@
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F12"/>
@@ -4710,7 +4902,7 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="4"/>
@@ -4724,7 +4916,7 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="4"/>
@@ -4795,7 +4987,7 @@
     <row r="19" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" s="32"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="4"/>
       <c r="E19" s="23"/>
       <c r="F19" s="4"/>
@@ -4804,7 +4996,7 @@
     <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="32"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
       <c r="F20" s="4"/>
@@ -4813,7 +5005,7 @@
     <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="4"/>
       <c r="E21" s="23"/>
       <c r="F21" s="4"/>
@@ -4822,7 +5014,7 @@
     <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="32"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="4"/>
       <c r="E22" s="23"/>
       <c r="F22" s="4"/>
@@ -4839,46 +5031,46 @@
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A24" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" ht="408.75" customHeight="1">
@@ -4896,19 +5088,19 @@
         <v>38</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>105</v>
+        <v>139</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K25" s="19">
         <v>45138</v>
@@ -4932,19 +5124,19 @@
         <v>39</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>105</v>
+        <v>141</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K26" s="19">
         <v>45147</v>
@@ -4966,19 +5158,19 @@
         <v>40</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>105</v>
+        <v>143</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="19">
         <v>45147</v>
@@ -5000,19 +5192,19 @@
         <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>105</v>
+        <v>145</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K28" s="19">
         <v>45147</v>
@@ -5034,19 +5226,19 @@
         <v>42</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>105</v>
+        <v>147</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K29" s="19">
         <v>45147</v>
@@ -5068,19 +5260,19 @@
         <v>43</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>105</v>
+        <v>149</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K30" s="19">
         <v>45147</v>
@@ -5102,19 +5294,19 @@
         <v>44</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>105</v>
+        <v>151</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K31" s="19">
         <v>45147</v>
@@ -5136,19 +5328,19 @@
         <v>45</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>105</v>
+        <v>153</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K32" s="19">
         <v>45147</v>
@@ -5170,19 +5362,19 @@
         <v>46</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>105</v>
+        <v>155</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K33" s="19">
         <v>45147</v>
@@ -5204,19 +5396,19 @@
         <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>105</v>
+        <v>157</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K34" s="19">
         <v>45147</v>
@@ -5238,19 +5430,19 @@
         <v>48</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>105</v>
+        <v>159</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K35" s="19">
         <v>45147</v>
@@ -5272,19 +5464,19 @@
         <v>49</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>105</v>
+        <v>161</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K36" s="19">
         <v>45147</v>
@@ -5306,26 +5498,26 @@
         <v>50</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="31" t="s">
         <v>163</v>
       </c>
+      <c r="H37" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="I37" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K37" s="19">
         <v>45147</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N37" s="22"/>
     </row>
@@ -5342,29 +5534,29 @@
         <v>51</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K38" s="19">
         <v>45149</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N38" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1" ht="404.25">
@@ -5380,19 +5572,19 @@
         <v>52</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="31" t="s">
-        <v>105</v>
+        <v>171</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K39" s="19">
         <v>45149</v>
@@ -5414,19 +5606,19 @@
         <v>53</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="31" t="s">
-        <v>105</v>
+        <v>173</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K40" s="19">
         <v>45149</v>
@@ -5450,9 +5642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446963F-9C81-48F7-81F5-BB5170EFC699}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5464,8 +5654,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="25"/>
@@ -5482,7 +5672,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
@@ -5683,7 +5873,7 @@
     <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="32"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
       <c r="F20" s="4"/>
@@ -5692,7 +5882,7 @@
     <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="4"/>
       <c r="E21" s="23"/>
       <c r="F21" s="4"/>
@@ -5701,7 +5891,7 @@
     <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="32"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="4"/>
       <c r="E22" s="23"/>
       <c r="F22" s="4"/>
@@ -5710,7 +5900,7 @@
     <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="4"/>
       <c r="E23" s="23"/>
       <c r="F23" s="4"/>
@@ -5727,46 +5917,46 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="135">
@@ -5784,19 +5974,19 @@
         <v>55</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>105</v>
+        <v>175</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K26" s="19">
         <v>45149</v>
@@ -5820,19 +6010,19 @@
         <v>56</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>105</v>
+        <v>177</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="19">
         <v>45149</v>
@@ -5854,19 +6044,19 @@
         <v>57</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>105</v>
+        <v>175</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K28" s="19">
         <v>45149</v>
@@ -5888,19 +6078,19 @@
         <v>58</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>105</v>
+        <v>175</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K29" s="19">
         <v>45149</v>
@@ -5922,19 +6112,19 @@
         <v>59</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>105</v>
+        <v>181</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K30" s="19">
         <v>45149</v>
@@ -5956,19 +6146,19 @@
         <v>60</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>105</v>
+        <v>183</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K31" s="19">
         <v>45149</v>
@@ -5990,19 +6180,19 @@
         <v>61</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>105</v>
+        <v>185</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K32" s="19">
         <v>45149</v>
@@ -6024,19 +6214,19 @@
         <v>62</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>105</v>
+        <v>177</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K33" s="19">
         <v>45149</v>
@@ -6058,19 +6248,19 @@
         <v>63</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>105</v>
+        <v>181</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K34" s="19">
         <v>45149</v>
@@ -6092,19 +6282,19 @@
         <v>64</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>105</v>
+        <v>189</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K35" s="19">
         <v>45149</v>
@@ -6126,19 +6316,19 @@
         <v>65</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>105</v>
+        <v>191</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K36" s="19">
         <v>45149</v>
@@ -6160,19 +6350,19 @@
         <v>66</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>105</v>
+        <v>193</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K37" s="19">
         <v>45149</v>
@@ -6194,19 +6384,19 @@
         <v>67</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>105</v>
+        <v>195</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K38" s="19">
         <v>45149</v>
@@ -6223,7 +6413,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="31"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
@@ -6239,9 +6429,9 @@
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="19"/>
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
@@ -6255,9 +6445,9 @@
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="19"/>
       <c r="L41" s="20"/>
       <c r="M41" s="21"/>
@@ -6278,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98651244-5A40-4764-9A08-859ABC36F31B}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6292,8 +6482,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="25"/>
@@ -6310,7 +6500,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
@@ -6321,7 +6511,7 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
@@ -6332,7 +6522,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
@@ -6343,7 +6533,7 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
@@ -6354,7 +6544,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -6367,7 +6557,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="4"/>
@@ -6380,7 +6570,7 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="4"/>
@@ -6393,7 +6583,7 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="4"/>
@@ -6406,7 +6596,7 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="4"/>
@@ -6419,7 +6609,7 @@
         <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="4"/>
@@ -6432,7 +6622,7 @@
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="4"/>
@@ -6493,7 +6683,7 @@
     <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="32"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
       <c r="F20" s="4"/>
@@ -6502,7 +6692,7 @@
     <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="4"/>
       <c r="E21" s="23"/>
       <c r="F21" s="4"/>
@@ -6511,7 +6701,7 @@
     <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="32"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="4"/>
       <c r="E22" s="23"/>
       <c r="F22" s="4"/>
@@ -6520,7 +6710,7 @@
     <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="4"/>
       <c r="E23" s="23"/>
       <c r="F23" s="4"/>
@@ -6537,46 +6727,46 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="387.75">
@@ -6591,22 +6781,22 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>105</v>
+        <v>207</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K26" s="19">
         <v>45152</v>
@@ -6627,22 +6817,22 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>105</v>
+        <v>209</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="19">
         <v>45152</v>
@@ -6661,22 +6851,22 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>105</v>
+        <v>211</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K28" s="19">
         <v>45159</v>
@@ -6695,22 +6885,22 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>105</v>
+        <v>213</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K29" s="19">
         <v>45159</v>
@@ -6729,22 +6919,22 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>105</v>
+        <v>215</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K30" s="19">
         <v>45159</v>
@@ -6765,22 +6955,22 @@
         <v>56</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>105</v>
+        <v>217</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K31" s="19">
         <v>45159</v>
@@ -6802,29 +6992,29 @@
         <v>75</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>163</v>
+        <v>219</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="K32" s="19">
         <v>45159</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="387.75">
@@ -6837,22 +7027,22 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>105</v>
+        <v>223</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K33" s="19">
         <v>45161</v>
@@ -6871,22 +7061,22 @@
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>105</v>
+        <v>225</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K34" s="19">
         <v>45161</v>
@@ -6908,26 +7098,26 @@
         <v>78</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>163</v>
+        <v>223</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="K35" s="19">
         <v>45161</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" s="22"/>
     </row>
@@ -6939,9 +7129,9 @@
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="19"/>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
@@ -6955,9 +7145,9 @@
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="19"/>
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
@@ -6971,9 +7161,9 @@
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
@@ -6987,7 +7177,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="31"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
@@ -7003,9 +7193,9 @@
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="19"/>
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
@@ -7019,9 +7209,9 @@
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="19"/>
       <c r="L41" s="20"/>
       <c r="M41" s="21"/>
@@ -7042,8 +7232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB3D0-6AAA-41FF-857D-288A769CB3BC}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N31" sqref="A26:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7053,11 +7243,12 @@
     <col min="7" max="7" width="28.75" customWidth="1"/>
     <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.75" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="25"/>
@@ -7074,7 +7265,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
@@ -7227,7 +7418,7 @@
     <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="32"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
       <c r="F20" s="4"/>
@@ -7236,7 +7427,7 @@
     <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="4"/>
       <c r="E21" s="23"/>
       <c r="F21" s="4"/>
@@ -7245,7 +7436,7 @@
     <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="32"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="4"/>
       <c r="E22" s="23"/>
       <c r="F22" s="4"/>
@@ -7254,7 +7445,7 @@
     <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="4"/>
       <c r="E23" s="23"/>
       <c r="F23" s="4"/>
@@ -7271,46 +7462,46 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="185.25">
@@ -7328,25 +7519,25 @@
         <v>80</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>105</v>
+        <v>229</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K26" s="19">
         <v>45161</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="22"/>
@@ -7366,25 +7557,25 @@
         <v>81</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>105</v>
+        <v>232</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="19">
         <v>45161</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="22"/>
@@ -7402,30 +7593,32 @@
         <v>82</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>163</v>
+        <v>234</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="K28" s="19">
         <v>45161</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="N28" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1" ht="202.5">
       <c r="A29" s="13"/>
@@ -7440,30 +7633,32 @@
         <v>83</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>163</v>
+        <v>238</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="K29" s="19">
         <v>45161</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="N29" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="202.5">
       <c r="A30" s="13"/>
@@ -7475,28 +7670,28 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>105</v>
+      <c r="H30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K30" s="19">
         <v>45161</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="22"/>
@@ -7511,22 +7706,22 @@
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>105</v>
+        <v>245</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="K31" s="19">
         <v>45161</v>
@@ -7547,9 +7742,9 @@
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="19"/>
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
@@ -7563,9 +7758,9 @@
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="19"/>
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
@@ -7579,9 +7774,9 @@
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="19"/>
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
@@ -7595,9 +7790,9 @@
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
@@ -7611,9 +7806,9 @@
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="19"/>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
@@ -7627,9 +7822,9 @@
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="19"/>
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
@@ -7643,9 +7838,9 @@
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
@@ -7659,7 +7854,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="31"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
@@ -7675,9 +7870,9 @@
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="19"/>
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
@@ -7691,9 +7886,9 @@
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="19"/>
       <c r="L41" s="20"/>
       <c r="M41" s="21"/>
@@ -7708,4 +7903,2946 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F89520A-2605-43A0-89B3-404CF790EBED}">
+  <dimension ref="A2:N41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N29" sqref="A26:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A5">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A6">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A8">
+        <v>71</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="F8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A9">
+        <v>72</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="F9"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="F10"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="F11"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="F12"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="F13"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="4"/>
+      <c r="F14"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="15">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="100.5">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>67</v>
+      </c>
+      <c r="C26" s="13">
+        <v>67</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="19">
+        <v>45163</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="135">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13">
+        <v>68</v>
+      </c>
+      <c r="C27" s="13">
+        <v>68</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="19">
+        <v>45163</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="185.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
+        <v>69</v>
+      </c>
+      <c r="C28" s="13">
+        <v>69</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="19">
+        <v>45163</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="387.75">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13">
+        <v>70</v>
+      </c>
+      <c r="C29" s="13">
+        <v>70</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="30">
+        <v>45163</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25:E25" xr:uid="{5D5184DB-E4FB-42CE-9026-463673A6A372}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BCBB3-757F-4065-8460-FEE9806F9CC5}">
+  <dimension ref="A1:L70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F69" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="69.25" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="11" max="11" width="30.75" customWidth="1"/>
+    <col min="12" max="12" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5">
+      <c r="A1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="100.5">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" ht="100.5">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" ht="33">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="33">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" ht="99">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="100.5">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" ht="84">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="118.5">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="135">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" ht="100.5">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" ht="33">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="33">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" ht="33">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" ht="33">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="118.5">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" ht="118.5">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" ht="118.5">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" ht="118.5">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" ht="354">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="135">
+      <c r="A21" s="13">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="67.5">
+      <c r="A22" s="13">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13">
+        <v>21</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14">
+        <v>20</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" ht="51">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="14">
+        <v>20</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="354">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13">
+        <v>23</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="19">
+        <v>45138</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" ht="336.75">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13">
+        <v>24</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" ht="336.75">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" ht="336.75">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13">
+        <v>26</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="336.75">
+      <c r="A28" s="13">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13">
+        <v>27</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" ht="336.75">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13">
+        <v>28</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" ht="336.75">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13">
+        <v>29</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" ht="352.5">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13">
+        <v>30</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="354">
+      <c r="A32" s="13">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" ht="352.5">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13">
+        <v>32</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" ht="352.5">
+      <c r="A34" s="13">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13">
+        <v>33</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" ht="336.75">
+      <c r="A35" s="13">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13">
+        <v>34</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" ht="336.75">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13">
+        <v>35</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="19">
+        <v>45147</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="336.75">
+      <c r="A37" s="13">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13">
+        <v>36</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="387.75">
+      <c r="A38" s="13">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13">
+        <v>37</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="1:12" ht="336.75">
+      <c r="A39" s="13">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13">
+        <v>38</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:12" ht="168">
+      <c r="A40" s="13">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13">
+        <v>39</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:12" ht="135">
+      <c r="A41" s="13">
+        <v>1</v>
+      </c>
+      <c r="B41" s="13">
+        <v>40</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:12" ht="151.5">
+      <c r="A42" s="13">
+        <v>1</v>
+      </c>
+      <c r="B42" s="13">
+        <v>41</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="1:12" ht="168">
+      <c r="A43" s="13">
+        <v>1</v>
+      </c>
+      <c r="B43" s="13">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" ht="151.5">
+      <c r="A44" s="13">
+        <v>1</v>
+      </c>
+      <c r="B44" s="13">
+        <v>43</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12" ht="168">
+      <c r="A45" s="13">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13">
+        <v>44</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12" ht="185.25">
+      <c r="A46" s="13">
+        <v>1</v>
+      </c>
+      <c r="B46" s="13">
+        <v>45</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="1:12" ht="151.5">
+      <c r="A47" s="13">
+        <v>1</v>
+      </c>
+      <c r="B47" s="13">
+        <v>46</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="1:12" ht="151.5">
+      <c r="A48" s="13">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13">
+        <v>47</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:12" ht="151.5">
+      <c r="A49" s="13">
+        <v>1</v>
+      </c>
+      <c r="B49" s="13">
+        <v>48</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="1:12" ht="151.5">
+      <c r="A50" s="13">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13">
+        <v>49</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="19">
+        <v>45149</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12" ht="387.75">
+      <c r="A51" s="13">
+        <v>1</v>
+      </c>
+      <c r="B51" s="13">
+        <v>50</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" s="19">
+        <v>45152</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12" ht="370.5">
+      <c r="A52" s="13">
+        <v>1</v>
+      </c>
+      <c r="B52" s="13">
+        <v>51</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="19">
+        <v>45152</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12" ht="387.75">
+      <c r="A53" s="13">
+        <v>1</v>
+      </c>
+      <c r="B53" s="13">
+        <v>52</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="19">
+        <v>45159</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+    </row>
+    <row r="54" spans="1:12" ht="185.25">
+      <c r="A54" s="13">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13">
+        <v>53</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" s="19">
+        <v>45159</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12" ht="387.75">
+      <c r="A55" s="13">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13">
+        <v>54</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="19">
+        <v>45159</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12" ht="235.5">
+      <c r="A56" s="13">
+        <v>1</v>
+      </c>
+      <c r="B56" s="13">
+        <v>55</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="14">
+        <v>56</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="19">
+        <v>45159</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" ht="185.25">
+      <c r="A57" s="13">
+        <v>1</v>
+      </c>
+      <c r="B57" s="13">
+        <v>56</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I57" s="19">
+        <v>45159</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="387.75">
+      <c r="A58" s="13">
+        <v>1</v>
+      </c>
+      <c r="B58" s="13">
+        <v>57</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="1:12" ht="409.6">
+      <c r="A59" s="13">
+        <v>1</v>
+      </c>
+      <c r="B59" s="13">
+        <v>58</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" spans="1:12" ht="202.5">
+      <c r="A60" s="13">
+        <v>1</v>
+      </c>
+      <c r="B60" s="13">
+        <v>59</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="185.25">
+      <c r="A61" s="13">
+        <v>1</v>
+      </c>
+      <c r="B61" s="13">
+        <v>60</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" ht="185.25">
+      <c r="A62" s="13">
+        <v>1</v>
+      </c>
+      <c r="B62" s="13">
+        <v>61</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
+    </row>
+    <row r="63" spans="1:12" ht="235.5">
+      <c r="A63" s="13">
+        <v>1</v>
+      </c>
+      <c r="B63" s="13">
+        <v>62</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I63" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="185.25">
+      <c r="A64" s="13">
+        <v>1</v>
+      </c>
+      <c r="B64" s="13">
+        <v>63</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="202.5">
+      <c r="A65" s="13">
+        <v>1</v>
+      </c>
+      <c r="B65" s="13">
+        <v>64</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
+    </row>
+    <row r="66" spans="1:12" ht="219">
+      <c r="A66" s="13">
+        <v>1</v>
+      </c>
+      <c r="B66" s="13">
+        <v>65</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="19">
+        <v>45161</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" spans="1:12" ht="100.5">
+      <c r="A67" s="13">
+        <v>1</v>
+      </c>
+      <c r="B67" s="13">
+        <v>66</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67" s="19">
+        <v>45163</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
+    </row>
+    <row r="68" spans="1:12" ht="135">
+      <c r="A68" s="13">
+        <v>1</v>
+      </c>
+      <c r="B68" s="13">
+        <v>67</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I68" s="19">
+        <v>45163</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="1:12" ht="185.25">
+      <c r="A69" s="13">
+        <v>1</v>
+      </c>
+      <c r="B69" s="13">
+        <v>68</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I69" s="19">
+        <v>45163</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" spans="1:12" ht="387.75">
+      <c r="A70" s="13">
+        <v>1</v>
+      </c>
+      <c r="B70" s="13">
+        <v>69</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I70" s="30">
+        <v>45163</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L70" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L70" xr:uid="{8C1BCBB3-757F-4065-8460-FEE9806F9CC5}"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E1" xr:uid="{E5D4AF17-1D86-4E23-A27B-9C96D2A1BF5A}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_case/system-test.xlsx
+++ b/test_case/system-test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B25E71C-10EB-4341-8C7C-C2A6FD54A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE44D06-22B8-43A8-B370-1D27B9ECE644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8534,8 +8534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BCBB3-757F-4065-8460-FEE9806F9CC5}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F69" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8650,7 +8650,7 @@
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="33">
+    <row r="4" spans="1:12" ht="48.75" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
